--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_6_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_6_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1960586.821335234</v>
+        <v>1942717.641136753</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1703882.653759767</v>
+        <v>1703882.653759765</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3254445.780230134</v>
+        <v>3254445.780230133</v>
       </c>
     </row>
     <row r="9">
@@ -661,16 +661,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>207.0368788505634</v>
       </c>
       <c r="G2" t="n">
         <v>15.30273751513505</v>
@@ -703,13 +703,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -721,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>178.1573130319831</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -740,19 +740,19 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
@@ -788,16 +788,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>30.22545560005763</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>43.52259139592644</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -837,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -904,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F5" t="n">
-        <v>103.0088977318019</v>
+        <v>200.3360962888297</v>
       </c>
       <c r="G5" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -940,13 +940,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -980,19 +980,19 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>69.3421217705996</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -1022,22 +1022,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>162.2250825358975</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1095,10 +1095,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>198.7050131246913</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
       <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>40.47627913313511</v>
+      </c>
+      <c r="G8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F8" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="G8" t="n">
-        <v>15.30273751513505</v>
-      </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1180,7 +1180,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1211,13 +1211,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1226,10 +1226,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1259,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>54.57755921621632</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>182.0298393827524</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1277,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1299,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>78.58636550379181</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H11" t="n">
-        <v>315.0408840752156</v>
+        <v>238.6658648361288</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>118.4960408938906</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>20.90078060183529</v>
+        <v>20.90078060183531</v>
       </c>
       <c r="S12" t="n">
         <v>147.9721212459916</v>
@@ -1530,25 +1530,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>106.565419853816</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>123.2665578794171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,22 +1578,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>2.45447655302773</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1618,10 +1618,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>315.0408840752156</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>123.6569643538968</v>
       </c>
       <c r="T14" t="n">
-        <v>128.9157954197177</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>22.53590636345242</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>116.9979730949137</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>129.1731816677914</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>205.3658819001187</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U16" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>412.9169039459368</v>
+        <v>277.5948985960649</v>
       </c>
       <c r="H17" t="n">
         <v>315.0408840752156</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>154.6528871281403</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>2.187497519245044</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>99.90681807664348</v>
       </c>
       <c r="I18" t="n">
-        <v>45.44580843958676</v>
+        <v>45.44580843958678</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>20.90078060183525</v>
+        <v>20.90078060183531</v>
       </c>
       <c r="S18" t="n">
         <v>147.9721212459916</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>165.0140383262328</v>
       </c>
       <c r="U19" t="n">
         <v>286.260654658097</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>165.0140383262334</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>9.045857818711603</v>
       </c>
       <c r="I20" t="n">
-        <v>52.23166108618116</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2146,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2180,7 +2180,7 @@
         <v>99.90681807664348</v>
       </c>
       <c r="I21" t="n">
-        <v>45.44580843958676</v>
+        <v>45.44580843958678</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>20.90078060183525</v>
+        <v>20.90078060183529</v>
       </c>
       <c r="S21" t="n">
         <v>147.9721212459916</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>50.11329168762824</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H22" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>123.2665578794171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>31.64144806848127</v>
       </c>
       <c r="T22" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2304,10 +2304,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>200.8509920397279</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2335,7 +2335,7 @@
         <v>412.4198296272988</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>309.9502217094637</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>143.3258060921758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>210.475920285128</v>
+        <v>130.5446252133685</v>
       </c>
       <c r="U23" t="n">
-        <v>251.1150202768096</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>4.388042077384782</v>
+        <v>4.388042077384796</v>
       </c>
       <c r="S24" t="n">
         <v>143.0320641923714</v>
@@ -2478,10 +2478,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>116.5612290399728</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,22 +2529,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>156.7760955545512</v>
+        <v>222.420212896533</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>228.0232806541733</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2569,13 +2569,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>148.5236284716804</v>
+        <v>412.4198296272988</v>
       </c>
       <c r="H26" t="n">
         <v>309.9502217094637</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>99.33258322459717</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,13 +2608,13 @@
         <v>143.3258060921758</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>210.475920285128</v>
       </c>
       <c r="U26" t="n">
-        <v>251.1150202768096</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>5.162574081601942</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>4.388042077384782</v>
+        <v>4.388042077384796</v>
       </c>
       <c r="S27" t="n">
         <v>143.0320641923714</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>106.7416366519687</v>
       </c>
       <c r="C28" t="n">
-        <v>136.839825603211</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2727,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.697806127624</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>150.7296868732905</v>
       </c>
       <c r="I28" t="n">
-        <v>116.5612290399728</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,13 +2766,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>222.420212896533</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2809,10 +2809,10 @@
         <v>412.4198296272988</v>
       </c>
       <c r="H29" t="n">
-        <v>46.05402055384537</v>
+        <v>197.8364576060587</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>99.33258322459717</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.1150202768096</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>4.388042077384782</v>
+        <v>4.388042077384796</v>
       </c>
       <c r="S30" t="n">
         <v>143.0320641923714</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>35.08386546224739</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>150.7296868732905</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>116.5612290399728</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>201.4801154596064</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3012,13 +3012,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>147.6202581682232</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>99.33258322459717</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3088,10 +3088,10 @@
         <v>251.1150202768096</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>63.99777551425611</v>
       </c>
       <c r="W32" t="n">
-        <v>184.8190689861333</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>4.388042077384782</v>
+        <v>4.388042077384796</v>
       </c>
       <c r="S33" t="n">
         <v>143.0320641923714</v>
@@ -3189,22 +3189,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.697806127624</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>150.7296868732905</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>119.1476204707264</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>201.4801154596064</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3246,16 +3246,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>86.15423354455588</v>
+        <v>212.8239966886132</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>309.9502217094637</v>
       </c>
       <c r="I35" t="n">
-        <v>99.33258322459716</v>
+        <v>99.33258322459717</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>143.3258060921758</v>
+        <v>107.8492801820962</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.1150202768096</v>
       </c>
       <c r="V35" t="n">
-        <v>215.638494366729</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>4.388042077384782</v>
+        <v>4.388042077384796</v>
       </c>
       <c r="S36" t="n">
         <v>143.0320641923714</v>
@@ -3423,31 +3423,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>147.4931519898653</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.697806127624</v>
       </c>
       <c r="H37" t="n">
-        <v>150.7296868732905</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>116.5612290399728</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>1.931832696654979</v>
+        <v>1.931832696654993</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>16.75595503670682</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3486,10 +3486,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>143.3258060921758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.1150202768096</v>
+        <v>130.5446252133685</v>
       </c>
       <c r="V38" t="n">
-        <v>63.8560573145193</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3602,7 +3602,7 @@
         <v>97.33822170543409</v>
       </c>
       <c r="I39" t="n">
-        <v>36.28891401906287</v>
+        <v>36.28891401906286</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>4.388042077384782</v>
+        <v>4.388042077384767</v>
       </c>
       <c r="S39" t="n">
         <v>143.0320641923714</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.5667363935378</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>150.7296868732905</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>119.1476204707264</v>
       </c>
       <c r="S40" t="n">
         <v>201.4801154596064</v>
@@ -3720,13 +3720,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>79.13016556171894</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3745,7 +3745,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>333.5869479815774</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3757,10 +3757,10 @@
         <v>412.4198296272988</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>309.9502217094637</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>99.33258322459714</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,10 +3793,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>210.475920285128</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.1150202768096</v>
+        <v>31.21204198877078</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>130.1673251169499</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.697806127624</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,22 +3951,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>222.4202128965329</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.248492634809</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>211.7400093064841</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3994,10 +3994,10 @@
         <v>412.4198296272988</v>
       </c>
       <c r="H44" t="n">
-        <v>309.9502217094637</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>99.33258322459714</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,13 +4030,13 @@
         <v>143.3258060921758</v>
       </c>
       <c r="T44" t="n">
-        <v>210.475920285128</v>
+        <v>46.05402055384672</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.1150202768096</v>
       </c>
       <c r="V44" t="n">
-        <v>5.162574081601942</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.697806127624</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>14.46370752131385</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>119.1476204707264</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>222.4202128965329</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>89.02844064147135</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>540.6514970160482</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="C2" t="n">
-        <v>297.2027203719481</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="D2" t="n">
-        <v>297.2027203719481</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="E2" t="n">
-        <v>53.75394372784808</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="F2" t="n">
         <v>46.80844297864461</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="V2" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="W2" t="n">
-        <v>720.6083788665362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="X2" t="n">
-        <v>540.6514970160482</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="Y2" t="n">
-        <v>540.6514970160482</v>
+        <v>742.8341567219593</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>382.9414955037181</v>
+        <v>832.3568628311405</v>
       </c>
       <c r="C3" t="n">
-        <v>382.9414955037181</v>
+        <v>657.9038335500135</v>
       </c>
       <c r="D3" t="n">
-        <v>382.9414955037181</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="E3" t="n">
-        <v>223.7040404982626</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F3" t="n">
-        <v>223.7040404982626</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G3" t="n">
         <v>223.7040404982626</v>
@@ -4415,19 +4415,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>178.8501590306595</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>417.4543050195419</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>656.0584510084244</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4436,25 +4436,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>862.8876260635219</v>
+        <v>832.3568628311405</v>
       </c>
       <c r="T3" t="n">
-        <v>862.8876260635219</v>
+        <v>832.3568628311405</v>
       </c>
       <c r="U3" t="n">
-        <v>634.6640077999109</v>
+        <v>832.3568628311405</v>
       </c>
       <c r="V3" t="n">
-        <v>590.7017942686721</v>
+        <v>832.3568628311405</v>
       </c>
       <c r="W3" t="n">
-        <v>590.7017942686721</v>
+        <v>832.3568628311405</v>
       </c>
       <c r="X3" t="n">
-        <v>590.7017942686721</v>
+        <v>832.3568628311405</v>
       </c>
       <c r="Y3" t="n">
-        <v>382.9414955037181</v>
+        <v>832.3568628311405</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4506,34 +4506,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C5" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D5" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E5" t="n">
-        <v>591.4512093066566</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F5" t="n">
-        <v>487.4018176583718</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="G5" t="n">
-        <v>243.9530410142718</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H5" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
         <v>31.35113235729608</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V5" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W5" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X5" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y5" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>565.0413275456638</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="C6" t="n">
-        <v>565.0413275456638</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="D6" t="n">
-        <v>416.1069178844125</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="E6" t="n">
-        <v>256.869462878957</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="F6" t="n">
-        <v>110.334904905842</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G6" t="n">
-        <v>110.334904905842</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H6" t="n">
         <v>110.334904905842</v>
@@ -4652,10 +4652,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M6" t="n">
-        <v>487.8483949674443</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N6" t="n">
         <v>542.809531908403</v>
@@ -4670,28 +4670,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="V6" t="n">
-        <v>728.9050472788936</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="W6" t="n">
-        <v>565.0413275456638</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="X6" t="n">
-        <v>565.0413275456638</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="Y6" t="n">
-        <v>565.0413275456638</v>
+        <v>432.4774131586771</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4743,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>753.253405673024</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="C8" t="n">
-        <v>509.8046290289238</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="D8" t="n">
-        <v>509.8046290289238</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="E8" t="n">
-        <v>266.3558523848238</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="F8" t="n">
-        <v>259.4103516356203</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G8" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
         <v>31.35113235729608</v>
@@ -4828,28 +4828,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>168.9696854242497</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="C9" t="n">
-        <v>168.9696854242497</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="D9" t="n">
-        <v>20.03527576299844</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="E9" t="n">
-        <v>20.03527576299844</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H9" t="n">
         <v>20.03527576299844</v>
@@ -4886,19 +4886,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>304.2053859195205</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>542.809531908403</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N9" t="n">
-        <v>781.4136778972854</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
         <v>964.0571555106362</v>
@@ -4907,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>908.9283078174884</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>735.5109632681573</v>
       </c>
       <c r="T9" t="n">
-        <v>780.1886308815933</v>
+        <v>735.5109632681573</v>
       </c>
       <c r="U9" t="n">
-        <v>780.1886308815933</v>
+        <v>507.2873450045464</v>
       </c>
       <c r="V9" t="n">
-        <v>545.0365226498506</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="W9" t="n">
-        <v>545.0365226498506</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="X9" t="n">
-        <v>337.1850224443177</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="Y9" t="n">
-        <v>337.1850224443177</v>
+        <v>272.1352367728036</v>
       </c>
     </row>
     <row r="10">
@@ -4938,13 +4938,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E10" t="n">
         <v>19.28114311021272</v>
@@ -4992,22 +4992,22 @@
         <v>151.0645035650224</v>
       </c>
       <c r="T10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="11">
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1240.846680926016</v>
+        <v>2017.585852965951</v>
       </c>
       <c r="C11" t="n">
-        <v>1161.466513750469</v>
+        <v>1648.623336025539</v>
       </c>
       <c r="D11" t="n">
-        <v>803.2008151437186</v>
+        <v>1648.623336025539</v>
       </c>
       <c r="E11" t="n">
-        <v>803.2008151437186</v>
+        <v>1262.835083427295</v>
       </c>
       <c r="F11" t="n">
-        <v>392.2149103541111</v>
+        <v>851.8491786376874</v>
       </c>
       <c r="G11" t="n">
-        <v>392.2149103541111</v>
+        <v>434.7613968741148</v>
       </c>
       <c r="H11" t="n">
-        <v>73.9917951266205</v>
+        <v>193.68476572651</v>
       </c>
       <c r="I11" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="J11" t="n">
         <v>262.6316941403561</v>
@@ -5059,7 +5059,7 @@
         <v>3025.098749216832</v>
       </c>
       <c r="P11" t="n">
-        <v>3454.413795556125</v>
+        <v>3454.413795556126</v>
       </c>
       <c r="Q11" t="n">
         <v>3699.589756331025</v>
@@ -5071,22 +5071,22 @@
         <v>3543.374718827853</v>
       </c>
       <c r="T11" t="n">
-        <v>3328.574857095564</v>
+        <v>3328.574857095565</v>
       </c>
       <c r="U11" t="n">
-        <v>3074.883153840715</v>
+        <v>3074.883153840716</v>
       </c>
       <c r="V11" t="n">
-        <v>2743.820266497144</v>
+        <v>2743.820266497145</v>
       </c>
       <c r="W11" t="n">
-        <v>2391.05161122703</v>
+        <v>2391.051611227031</v>
       </c>
       <c r="X11" t="n">
-        <v>2017.58585296595</v>
+        <v>2017.585852965951</v>
       </c>
       <c r="Y11" t="n">
-        <v>1627.446520990138</v>
+        <v>2017.585852965951</v>
       </c>
     </row>
     <row r="12">
@@ -5108,37 +5108,37 @@
         <v>504.7885856053927</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2540276322776</v>
+        <v>358.2540276322777</v>
       </c>
       <c r="G12" t="n">
-        <v>220.8126299914995</v>
+        <v>220.8126299914996</v>
       </c>
       <c r="H12" t="n">
         <v>119.8966521363041</v>
       </c>
       <c r="I12" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="J12" t="n">
         <v>192.6510469835159</v>
       </c>
       <c r="K12" t="n">
-        <v>522.0794512893252</v>
+        <v>260.2588666468724</v>
       </c>
       <c r="L12" t="n">
-        <v>1026.440991155443</v>
+        <v>764.6204065129903</v>
       </c>
       <c r="M12" t="n">
-        <v>1253.562877620961</v>
+        <v>1405.165755980094</v>
       </c>
       <c r="N12" t="n">
-        <v>1452.219619273625</v>
+        <v>1603.822497632758</v>
       </c>
       <c r="O12" t="n">
-        <v>2001.655628026347</v>
+        <v>2153.25850638548</v>
       </c>
       <c r="P12" t="n">
-        <v>2425.623396507183</v>
+        <v>2577.226274866317</v>
       </c>
       <c r="Q12" t="n">
         <v>2656.336852567651</v>
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1073.926476585963</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="C13" t="n">
-        <v>966.2846383497852</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="D13" t="n">
-        <v>816.1679989374494</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="E13" t="n">
-        <v>668.2549053550563</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="F13" t="n">
-        <v>521.3649578571459</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="G13" t="n">
-        <v>352.7581128525293</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="H13" t="n">
-        <v>198.5034697522943</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="I13" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="J13" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="K13" t="n">
         <v>175.03972472223</v>
       </c>
       <c r="L13" t="n">
-        <v>359.872719623048</v>
+        <v>359.8727196230479</v>
       </c>
       <c r="M13" t="n">
-        <v>565.1423203422855</v>
+        <v>565.1423203422854</v>
       </c>
       <c r="N13" t="n">
-        <v>770.9656851783894</v>
+        <v>770.9656851783893</v>
       </c>
       <c r="O13" t="n">
-        <v>945.0605805669879</v>
+        <v>945.0605805669878</v>
       </c>
       <c r="P13" t="n">
         <v>1070.508157165603</v>
@@ -5226,25 +5226,25 @@
         <v>1073.926476585963</v>
       </c>
       <c r="S13" t="n">
-        <v>1073.926476585963</v>
+        <v>1071.44720734048</v>
       </c>
       <c r="T13" t="n">
-        <v>1073.926476585963</v>
+        <v>845.818010652845</v>
       </c>
       <c r="U13" t="n">
-        <v>1073.926476585963</v>
+        <v>556.6658342305248</v>
       </c>
       <c r="V13" t="n">
-        <v>1073.926476585963</v>
+        <v>301.9813460246378</v>
       </c>
       <c r="W13" t="n">
-        <v>1073.926476585963</v>
+        <v>301.9813460246378</v>
       </c>
       <c r="X13" t="n">
-        <v>1073.926476585963</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="Y13" t="n">
-        <v>1073.926476585963</v>
+        <v>73.99179512662052</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2452.998035652587</v>
+        <v>1624.924349099407</v>
       </c>
       <c r="C14" t="n">
-        <v>2084.035518712175</v>
+        <v>1255.961832158995</v>
       </c>
       <c r="D14" t="n">
-        <v>1725.769820105425</v>
+        <v>897.6961335522448</v>
       </c>
       <c r="E14" t="n">
-        <v>1339.981567507181</v>
+        <v>511.9078809540005</v>
       </c>
       <c r="F14" t="n">
-        <v>928.9956627175731</v>
+        <v>511.9078809540005</v>
       </c>
       <c r="G14" t="n">
         <v>511.9078809540005</v>
@@ -5305,25 +5305,25 @@
         <v>3699.589756331025</v>
       </c>
       <c r="S14" t="n">
-        <v>3699.589756331025</v>
+        <v>3574.683731731129</v>
       </c>
       <c r="T14" t="n">
-        <v>3569.371781159593</v>
+        <v>3359.88386999884</v>
       </c>
       <c r="U14" t="n">
-        <v>3569.371781159593</v>
+        <v>3106.192166743991</v>
       </c>
       <c r="V14" t="n">
-        <v>3569.371781159593</v>
+        <v>2775.12927940042</v>
       </c>
       <c r="W14" t="n">
-        <v>3216.603125889479</v>
+        <v>2775.12927940042</v>
       </c>
       <c r="X14" t="n">
-        <v>2843.137367628399</v>
+        <v>2401.66352113934</v>
       </c>
       <c r="Y14" t="n">
-        <v>2452.998035652587</v>
+        <v>2011.524189163529</v>
       </c>
     </row>
     <row r="15">
@@ -5363,19 +5363,19 @@
         <v>522.0794512893251</v>
       </c>
       <c r="L15" t="n">
-        <v>1026.440991155443</v>
+        <v>661.7232333657679</v>
       </c>
       <c r="M15" t="n">
-        <v>1205.938327510047</v>
+        <v>1302.268582832872</v>
       </c>
       <c r="N15" t="n">
-        <v>1452.219619273625</v>
+        <v>1975.474275085654</v>
       </c>
       <c r="O15" t="n">
-        <v>2001.655628026347</v>
+        <v>2524.910283838376</v>
       </c>
       <c r="P15" t="n">
-        <v>2425.623396507183</v>
+        <v>2633.599911365674</v>
       </c>
       <c r="Q15" t="n">
         <v>2656.336852567651</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>192.1715659295636</v>
+        <v>96.75533690788558</v>
       </c>
       <c r="C16" t="n">
-        <v>192.1715659295636</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="D16" t="n">
-        <v>192.1715659295636</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="E16" t="n">
-        <v>192.1715659295636</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="F16" t="n">
-        <v>192.1715659295636</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="G16" t="n">
-        <v>192.1715659295636</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="H16" t="n">
         <v>73.9917951266205</v>
@@ -5460,28 +5460,28 @@
         <v>1073.926476585963</v>
       </c>
       <c r="R16" t="n">
-        <v>943.4485153053654</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="S16" t="n">
-        <v>736.0082305577707</v>
+        <v>866.4861918383681</v>
       </c>
       <c r="T16" t="n">
-        <v>736.0082305577707</v>
+        <v>640.856995150733</v>
       </c>
       <c r="U16" t="n">
-        <v>446.8560541354505</v>
+        <v>640.856995150733</v>
       </c>
       <c r="V16" t="n">
-        <v>192.1715659295636</v>
+        <v>386.1725069448462</v>
       </c>
       <c r="W16" t="n">
-        <v>192.1715659295636</v>
+        <v>96.75533690788558</v>
       </c>
       <c r="X16" t="n">
-        <v>192.1715659295636</v>
+        <v>96.75533690788558</v>
       </c>
       <c r="Y16" t="n">
-        <v>192.1715659295636</v>
+        <v>96.75533690788558</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2333.305065052698</v>
+        <v>2196.616170759898</v>
       </c>
       <c r="C17" t="n">
-        <v>1964.342548112286</v>
+        <v>1827.653653819486</v>
       </c>
       <c r="D17" t="n">
-        <v>1606.076849505535</v>
+        <v>1469.387955212736</v>
       </c>
       <c r="E17" t="n">
-        <v>1220.288596907291</v>
+        <v>1083.599702614491</v>
       </c>
       <c r="F17" t="n">
-        <v>809.3026921176836</v>
+        <v>672.6137978248837</v>
       </c>
       <c r="G17" t="n">
         <v>392.2149103541111</v>
       </c>
       <c r="H17" t="n">
-        <v>73.99179512662054</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="I17" t="n">
-        <v>73.99179512662054</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="J17" t="n">
-        <v>262.6316941403561</v>
+        <v>262.6316941403566</v>
       </c>
       <c r="K17" t="n">
-        <v>666.0988071604008</v>
+        <v>666.0988071604015</v>
       </c>
       <c r="L17" t="n">
-        <v>1218.912065406599</v>
+        <v>1218.9120654066</v>
       </c>
       <c r="M17" t="n">
-        <v>1850.62987638991</v>
+        <v>1850.629876389911</v>
       </c>
       <c r="N17" t="n">
         <v>2477.937544449756</v>
       </c>
       <c r="O17" t="n">
-        <v>3025.098749216833</v>
+        <v>3025.098749216832</v>
       </c>
       <c r="P17" t="n">
-        <v>3454.413795556127</v>
+        <v>3454.413795556125</v>
       </c>
       <c r="Q17" t="n">
-        <v>3699.589756331027</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="R17" t="n">
-        <v>3699.589756331027</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="S17" t="n">
-        <v>3543.374718827855</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="T17" t="n">
-        <v>3328.574857095566</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="U17" t="n">
-        <v>3074.883153840717</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="V17" t="n">
-        <v>3072.673560386934</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="W17" t="n">
-        <v>2719.904905116819</v>
+        <v>3346.821101060911</v>
       </c>
       <c r="X17" t="n">
-        <v>2719.904905116819</v>
+        <v>2973.355342799831</v>
       </c>
       <c r="Y17" t="n">
-        <v>2719.904905116819</v>
+        <v>2583.21601082402</v>
       </c>
     </row>
     <row r="18">
@@ -5591,19 +5591,19 @@
         <v>119.8966521363041</v>
       </c>
       <c r="I18" t="n">
-        <v>73.99179512662054</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="J18" t="n">
-        <v>192.651046983516</v>
+        <v>192.6510469835159</v>
       </c>
       <c r="K18" t="n">
-        <v>522.0794512893253</v>
+        <v>522.0794512893251</v>
       </c>
       <c r="L18" t="n">
         <v>1026.440991155443</v>
       </c>
       <c r="M18" t="n">
-        <v>1253.562877620961</v>
+        <v>1205.938327510047</v>
       </c>
       <c r="N18" t="n">
         <v>1452.219619273625</v>
@@ -5649,49 +5649,49 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.99179512662054</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="C19" t="n">
-        <v>73.99179512662054</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="D19" t="n">
-        <v>73.99179512662054</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="E19" t="n">
-        <v>73.99179512662054</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="F19" t="n">
-        <v>73.99179512662054</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="G19" t="n">
-        <v>73.99179512662054</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="H19" t="n">
-        <v>73.99179512662054</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="I19" t="n">
-        <v>73.99179512662054</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="J19" t="n">
-        <v>73.99179512662054</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="K19" t="n">
-        <v>175.0397247222301</v>
+        <v>175.03972472223</v>
       </c>
       <c r="L19" t="n">
-        <v>359.8727196230482</v>
+        <v>359.8727196230479</v>
       </c>
       <c r="M19" t="n">
-        <v>565.1423203422858</v>
+        <v>565.1423203422854</v>
       </c>
       <c r="N19" t="n">
-        <v>770.9656851783898</v>
+        <v>770.9656851783893</v>
       </c>
       <c r="O19" t="n">
-        <v>945.0605805669884</v>
+        <v>945.0605805669878</v>
       </c>
       <c r="P19" t="n">
-        <v>1070.508157165604</v>
+        <v>1070.508157165603</v>
       </c>
       <c r="Q19" t="n">
         <v>1073.926476585963</v>
@@ -5703,22 +5703,22 @@
         <v>1073.926476585963</v>
       </c>
       <c r="T19" t="n">
-        <v>1073.926476585963</v>
+        <v>907.2456297917881</v>
       </c>
       <c r="U19" t="n">
-        <v>784.7743001636431</v>
+        <v>618.093453369468</v>
       </c>
       <c r="V19" t="n">
-        <v>530.0898119577563</v>
+        <v>363.4089651635811</v>
       </c>
       <c r="W19" t="n">
-        <v>240.6726419207957</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="X19" t="n">
-        <v>73.99179512662054</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.99179512662054</v>
+        <v>73.99179512662052</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1650.75342168404</v>
+        <v>2024.219179945118</v>
       </c>
       <c r="C20" t="n">
-        <v>1281.790904743628</v>
+        <v>1655.256663004706</v>
       </c>
       <c r="D20" t="n">
-        <v>923.5252061368776</v>
+        <v>1296.990964397956</v>
       </c>
       <c r="E20" t="n">
-        <v>537.7369535386333</v>
+        <v>911.2027117997113</v>
       </c>
       <c r="F20" t="n">
-        <v>126.7510487490258</v>
+        <v>500.2168070101038</v>
       </c>
       <c r="G20" t="n">
-        <v>126.7510487490258</v>
+        <v>83.12902524653123</v>
       </c>
       <c r="H20" t="n">
-        <v>126.7510487490258</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="I20" t="n">
-        <v>73.99179512662054</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="J20" t="n">
-        <v>262.6316941403566</v>
+        <v>262.6316941403564</v>
       </c>
       <c r="K20" t="n">
-        <v>666.0988071604015</v>
+        <v>666.0988071604011</v>
       </c>
       <c r="L20" t="n">
-        <v>1218.9120654066</v>
+        <v>1218.912065406599</v>
       </c>
       <c r="M20" t="n">
-        <v>1850.629876389911</v>
+        <v>1850.62987638991</v>
       </c>
       <c r="N20" t="n">
-        <v>2477.937544449756</v>
+        <v>2477.937544449755</v>
       </c>
       <c r="O20" t="n">
-        <v>3025.098749216833</v>
+        <v>3025.098749216832</v>
       </c>
       <c r="P20" t="n">
-        <v>3454.413795556127</v>
+        <v>3454.413795556125</v>
       </c>
       <c r="Q20" t="n">
-        <v>3699.589756331027</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="R20" t="n">
-        <v>3699.589756331027</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="S20" t="n">
-        <v>3699.589756331027</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="T20" t="n">
-        <v>3484.789894598738</v>
+        <v>3484.789894598736</v>
       </c>
       <c r="U20" t="n">
-        <v>3484.789894598738</v>
+        <v>3484.789894598736</v>
       </c>
       <c r="V20" t="n">
-        <v>3153.727007255167</v>
+        <v>3153.727007255166</v>
       </c>
       <c r="W20" t="n">
-        <v>2800.958351985053</v>
+        <v>2800.958351985051</v>
       </c>
       <c r="X20" t="n">
-        <v>2427.492593723973</v>
+        <v>2800.958351985051</v>
       </c>
       <c r="Y20" t="n">
-        <v>2037.353261748161</v>
+        <v>2410.819020009239</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>119.8966521363041</v>
       </c>
       <c r="I21" t="n">
-        <v>73.99179512662054</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="J21" t="n">
-        <v>73.99179512662054</v>
+        <v>192.6510469835159</v>
       </c>
       <c r="K21" t="n">
-        <v>141.5996147899772</v>
+        <v>522.0794512893252</v>
       </c>
       <c r="L21" t="n">
-        <v>645.9611546560951</v>
+        <v>1026.440991155443</v>
       </c>
       <c r="M21" t="n">
-        <v>1286.506504123199</v>
+        <v>1205.938327510047</v>
       </c>
       <c r="N21" t="n">
-        <v>1959.712196375981</v>
+        <v>1452.219619273625</v>
       </c>
       <c r="O21" t="n">
-        <v>2509.148205128703</v>
+        <v>2001.655628026347</v>
       </c>
       <c r="P21" t="n">
-        <v>2617.837832656002</v>
+        <v>2425.623396507183</v>
       </c>
       <c r="Q21" t="n">
         <v>2656.336852567651</v>
@@ -5886,49 +5886,49 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>848.2972798983284</v>
+        <v>411.5348230591441</v>
       </c>
       <c r="C22" t="n">
-        <v>848.2972798983284</v>
+        <v>242.5986401312371</v>
       </c>
       <c r="D22" t="n">
-        <v>698.1806404859926</v>
+        <v>242.5986401312371</v>
       </c>
       <c r="E22" t="n">
-        <v>550.2675469035995</v>
+        <v>242.5986401312371</v>
       </c>
       <c r="F22" t="n">
-        <v>403.3775994056891</v>
+        <v>242.5986401312371</v>
       </c>
       <c r="G22" t="n">
-        <v>352.7581128525293</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="H22" t="n">
-        <v>198.5034697522943</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="I22" t="n">
-        <v>73.99179512662054</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="J22" t="n">
-        <v>73.99179512662054</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="K22" t="n">
-        <v>175.0397247222301</v>
+        <v>175.03972472223</v>
       </c>
       <c r="L22" t="n">
-        <v>359.8727196230482</v>
+        <v>359.872719623048</v>
       </c>
       <c r="M22" t="n">
-        <v>565.1423203422858</v>
+        <v>565.1423203422855</v>
       </c>
       <c r="N22" t="n">
-        <v>770.9656851783898</v>
+        <v>770.9656851783894</v>
       </c>
       <c r="O22" t="n">
-        <v>945.0605805669884</v>
+        <v>945.0605805669879</v>
       </c>
       <c r="P22" t="n">
-        <v>1070.508157165604</v>
+        <v>1070.508157165603</v>
       </c>
       <c r="Q22" t="n">
         <v>1073.926476585963</v>
@@ -5937,25 +5937,25 @@
         <v>1073.926476585963</v>
       </c>
       <c r="S22" t="n">
-        <v>1073.926476585963</v>
+        <v>1041.965417930931</v>
       </c>
       <c r="T22" t="n">
-        <v>848.2972798983284</v>
+        <v>1041.965417930931</v>
       </c>
       <c r="U22" t="n">
-        <v>848.2972798983284</v>
+        <v>1041.965417930931</v>
       </c>
       <c r="V22" t="n">
-        <v>848.2972798983284</v>
+        <v>1041.965417930931</v>
       </c>
       <c r="W22" t="n">
-        <v>848.2972798983284</v>
+        <v>1041.965417930931</v>
       </c>
       <c r="X22" t="n">
-        <v>848.2972798983284</v>
+        <v>813.9758670329139</v>
       </c>
       <c r="Y22" t="n">
-        <v>848.2972798983284</v>
+        <v>593.1832878893838</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1860.61898185784</v>
+        <v>2339.782740888894</v>
       </c>
       <c r="C23" t="n">
-        <v>1657.739191918721</v>
+        <v>1970.820223948482</v>
       </c>
       <c r="D23" t="n">
-        <v>1299.47349331197</v>
+        <v>1612.554525341732</v>
       </c>
       <c r="E23" t="n">
-        <v>913.6852407137261</v>
+        <v>1226.766272743487</v>
       </c>
       <c r="F23" t="n">
-        <v>502.6993359241185</v>
+        <v>815.7803679538799</v>
       </c>
       <c r="G23" t="n">
-        <v>86.1136494318975</v>
+        <v>399.1946814616589</v>
       </c>
       <c r="H23" t="n">
-        <v>86.1136494318975</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="I23" t="n">
-        <v>86.1136494318975</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="J23" t="n">
-        <v>316.5202242826253</v>
+        <v>316.520224282624</v>
       </c>
       <c r="K23" t="n">
-        <v>782.5847574885302</v>
+        <v>782.5847574885292</v>
       </c>
       <c r="L23" t="n">
-        <v>1413.055650717818</v>
+        <v>1413.055650717817</v>
       </c>
       <c r="M23" t="n">
-        <v>2131.182543644156</v>
+        <v>2131.182543644155</v>
       </c>
       <c r="N23" t="n">
-        <v>2846.297482930782</v>
+        <v>2846.29748293078</v>
       </c>
       <c r="O23" t="n">
-        <v>3476.37260399624</v>
+        <v>3476.372603996239</v>
       </c>
       <c r="P23" t="n">
-        <v>3976.452759614953</v>
+        <v>3976.452759614952</v>
       </c>
       <c r="Q23" t="n">
-        <v>4274.77037037341</v>
+        <v>4274.770370373408</v>
       </c>
       <c r="R23" t="n">
-        <v>4305.682471594875</v>
+        <v>4305.682471594873</v>
       </c>
       <c r="S23" t="n">
-        <v>4160.908930087627</v>
+        <v>4305.682471594873</v>
       </c>
       <c r="T23" t="n">
-        <v>3948.306990405679</v>
+        <v>4173.819213803592</v>
       </c>
       <c r="U23" t="n">
-        <v>3694.655454772538</v>
+        <v>4173.819213803592</v>
       </c>
       <c r="V23" t="n">
-        <v>3363.592567428967</v>
+        <v>3842.756326460022</v>
       </c>
       <c r="W23" t="n">
-        <v>3010.823912158853</v>
+        <v>3489.987671189907</v>
       </c>
       <c r="X23" t="n">
-        <v>2637.358153897773</v>
+        <v>3116.521912928828</v>
       </c>
       <c r="Y23" t="n">
-        <v>2247.218821921962</v>
+        <v>2726.382580953016</v>
       </c>
     </row>
     <row r="24">
@@ -6065,28 +6065,28 @@
         <v>122.7691181380216</v>
       </c>
       <c r="I24" t="n">
-        <v>86.1136494318975</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="J24" t="n">
-        <v>104.8187222999258</v>
+        <v>229.6488472869304</v>
       </c>
       <c r="K24" t="n">
-        <v>214.9434958564829</v>
+        <v>601.5942054859403</v>
       </c>
       <c r="L24" t="n">
-        <v>747.1589986239717</v>
+        <v>1159.501306524561</v>
       </c>
       <c r="M24" t="n">
-        <v>1454.418214685589</v>
+        <v>1405.712509473678</v>
       </c>
       <c r="N24" t="n">
-        <v>2196.103491068335</v>
+        <v>1672.848835256307</v>
       </c>
       <c r="O24" t="n">
-        <v>2418.261244643319</v>
+        <v>1895.006588831291</v>
       </c>
       <c r="P24" t="n">
-        <v>2577.229361417491</v>
+        <v>2369.252846559001</v>
       </c>
       <c r="Q24" t="n">
         <v>2633.576141175236</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3421.572656042443</v>
+        <v>203.8522646237892</v>
       </c>
       <c r="C25" t="n">
-        <v>3252.636473114536</v>
+        <v>203.8522646237892</v>
       </c>
       <c r="D25" t="n">
-        <v>3102.5198337022</v>
+        <v>203.8522646237892</v>
       </c>
       <c r="E25" t="n">
-        <v>3102.5198337022</v>
+        <v>203.8522646237892</v>
       </c>
       <c r="F25" t="n">
-        <v>3102.5198337022</v>
+        <v>203.8522646237892</v>
       </c>
       <c r="G25" t="n">
-        <v>3102.5198337022</v>
+        <v>203.8522646237892</v>
       </c>
       <c r="H25" t="n">
-        <v>3102.5198337022</v>
+        <v>203.8522646237892</v>
       </c>
       <c r="I25" t="n">
-        <v>3102.5198337022</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="J25" t="n">
-        <v>3102.5198337022</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="K25" t="n">
-        <v>3229.21382180519</v>
+        <v>212.8076375348879</v>
       </c>
       <c r="L25" t="n">
-        <v>3446.864941966549</v>
+        <v>430.4587576962465</v>
       </c>
       <c r="M25" t="n">
-        <v>3686.736654332326</v>
+        <v>670.3304700620231</v>
       </c>
       <c r="N25" t="n">
-        <v>3926.339369939536</v>
+        <v>909.9331856692337</v>
       </c>
       <c r="O25" t="n">
-        <v>4131.634963111605</v>
+        <v>1115.228778841303</v>
       </c>
       <c r="P25" t="n">
-        <v>4283.780126751081</v>
+        <v>1267.373942480779</v>
       </c>
       <c r="Q25" t="n">
-        <v>4305.682471594875</v>
+        <v>1289.276287324573</v>
       </c>
       <c r="R25" t="n">
-        <v>4305.682471594875</v>
+        <v>1289.276287324573</v>
       </c>
       <c r="S25" t="n">
-        <v>4305.682471594875</v>
+        <v>1289.276287324573</v>
       </c>
       <c r="T25" t="n">
-        <v>4147.32277911553</v>
+        <v>1064.609405610903</v>
       </c>
       <c r="U25" t="n">
-        <v>4147.32277911553</v>
+        <v>1064.609405610903</v>
       </c>
       <c r="V25" t="n">
-        <v>3892.638290909643</v>
+        <v>834.2828594955764</v>
       </c>
       <c r="W25" t="n">
-        <v>3603.221120872683</v>
+        <v>834.2828594955764</v>
       </c>
       <c r="X25" t="n">
-        <v>3603.221120872683</v>
+        <v>606.2933085975591</v>
       </c>
       <c r="Y25" t="n">
-        <v>3603.221120872683</v>
+        <v>385.5007294540289</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2073.220921539784</v>
+        <v>2440.118683540002</v>
       </c>
       <c r="C26" t="n">
-        <v>1704.258404599373</v>
+        <v>2071.156166599591</v>
       </c>
       <c r="D26" t="n">
-        <v>1345.992705992622</v>
+        <v>1712.89046799284</v>
       </c>
       <c r="E26" t="n">
-        <v>960.2044533943779</v>
+        <v>1327.102215394596</v>
       </c>
       <c r="F26" t="n">
-        <v>549.2185486047704</v>
+        <v>916.1163106049881</v>
       </c>
       <c r="G26" t="n">
-        <v>399.1946814616588</v>
+        <v>499.5306241127671</v>
       </c>
       <c r="H26" t="n">
-        <v>86.11364943189744</v>
+        <v>186.4495920830057</v>
       </c>
       <c r="I26" t="n">
-        <v>86.11364943189744</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="J26" t="n">
-        <v>316.5202242826243</v>
+        <v>316.5202242826246</v>
       </c>
       <c r="K26" t="n">
-        <v>782.5847574885291</v>
+        <v>782.5847574885294</v>
       </c>
       <c r="L26" t="n">
         <v>1413.055650717817</v>
@@ -6247,31 +6247,31 @@
         <v>3976.452759614951</v>
       </c>
       <c r="Q26" t="n">
-        <v>4274.770370373407</v>
+        <v>4274.770370373408</v>
       </c>
       <c r="R26" t="n">
-        <v>4305.682471594872</v>
+        <v>4305.682471594873</v>
       </c>
       <c r="S26" t="n">
-        <v>4160.908930087624</v>
+        <v>4160.908930087625</v>
       </c>
       <c r="T26" t="n">
-        <v>4160.908930087624</v>
+        <v>3948.306990405677</v>
       </c>
       <c r="U26" t="n">
-        <v>3907.257394454483</v>
+        <v>3948.306990405677</v>
       </c>
       <c r="V26" t="n">
-        <v>3576.194507110912</v>
+        <v>3943.09226911113</v>
       </c>
       <c r="W26" t="n">
-        <v>3223.425851840798</v>
+        <v>3590.323613841016</v>
       </c>
       <c r="X26" t="n">
-        <v>2849.960093579718</v>
+        <v>3216.857855579936</v>
       </c>
       <c r="Y26" t="n">
-        <v>2459.820761603906</v>
+        <v>2826.718523604124</v>
       </c>
     </row>
     <row r="27">
@@ -6293,7 +6293,7 @@
         <v>504.7978651640974</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2633071909823</v>
+        <v>358.2633071909824</v>
       </c>
       <c r="G27" t="n">
         <v>221.0905542041166</v>
@@ -6302,28 +6302,28 @@
         <v>122.7691181380216</v>
       </c>
       <c r="I27" t="n">
-        <v>86.11364943189744</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="J27" t="n">
-        <v>104.8187222999257</v>
+        <v>229.6488472869304</v>
       </c>
       <c r="K27" t="n">
-        <v>214.9434958564828</v>
+        <v>601.5942054859403</v>
       </c>
       <c r="L27" t="n">
-        <v>409.3423852995845</v>
+        <v>1163.125036779466</v>
       </c>
       <c r="M27" t="n">
-        <v>1116.601601361202</v>
+        <v>1409.336239728584</v>
       </c>
       <c r="N27" t="n">
-        <v>1858.286877743948</v>
+        <v>1676.472565511212</v>
       </c>
       <c r="O27" t="n">
-        <v>2080.444631318932</v>
+        <v>1898.630319086196</v>
       </c>
       <c r="P27" t="n">
-        <v>2554.690889046642</v>
+        <v>2369.252846559001</v>
       </c>
       <c r="Q27" t="n">
         <v>2633.576141175236</v>
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1107.627822494333</v>
+        <v>702.1050824030275</v>
       </c>
       <c r="C28" t="n">
-        <v>969.4057764304836</v>
+        <v>533.1688994751206</v>
       </c>
       <c r="D28" t="n">
-        <v>819.2891370181478</v>
+        <v>533.1688994751206</v>
       </c>
       <c r="E28" t="n">
-        <v>671.3760434357547</v>
+        <v>385.2558058927275</v>
       </c>
       <c r="F28" t="n">
-        <v>524.4860959378443</v>
+        <v>238.3658583948172</v>
       </c>
       <c r="G28" t="n">
-        <v>356.1044735867089</v>
+        <v>238.3658583948172</v>
       </c>
       <c r="H28" t="n">
-        <v>203.8522646237892</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="I28" t="n">
-        <v>86.11364943189744</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="J28" t="n">
-        <v>86.11364943189744</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="K28" t="n">
         <v>212.8076375348879</v>
@@ -6414,22 +6414,22 @@
         <v>1289.276287324573</v>
       </c>
       <c r="T28" t="n">
-        <v>1289.276287324573</v>
+        <v>1064.609405610903</v>
       </c>
       <c r="U28" t="n">
-        <v>1289.276287324573</v>
+        <v>1064.609405610903</v>
       </c>
       <c r="V28" t="n">
-        <v>1289.276287324573</v>
+        <v>809.9249174050161</v>
       </c>
       <c r="W28" t="n">
-        <v>1289.276287324573</v>
+        <v>809.9249174050161</v>
       </c>
       <c r="X28" t="n">
-        <v>1289.276287324573</v>
+        <v>809.9249174050161</v>
       </c>
       <c r="Y28" t="n">
-        <v>1289.276287324573</v>
+        <v>809.9249174050161</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2073.220921539784</v>
+        <v>2326.872457172926</v>
       </c>
       <c r="C29" t="n">
-        <v>1704.258404599373</v>
+        <v>1957.909940232515</v>
       </c>
       <c r="D29" t="n">
-        <v>1345.992705992622</v>
+        <v>1599.644241625764</v>
       </c>
       <c r="E29" t="n">
-        <v>960.2044533943779</v>
+        <v>1213.85598902752</v>
       </c>
       <c r="F29" t="n">
-        <v>549.2185486047704</v>
+        <v>802.8700842379124</v>
       </c>
       <c r="G29" t="n">
-        <v>132.6328621125493</v>
+        <v>386.2843977456913</v>
       </c>
       <c r="H29" t="n">
-        <v>86.11364943189744</v>
+        <v>186.4495920830057</v>
       </c>
       <c r="I29" t="n">
-        <v>86.11364943189744</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="J29" t="n">
-        <v>316.5202242826243</v>
+        <v>316.520224282624</v>
       </c>
       <c r="K29" t="n">
-        <v>782.5847574885291</v>
+        <v>782.5847574885288</v>
       </c>
       <c r="L29" t="n">
-        <v>1413.055650717817</v>
+        <v>1413.055650717816</v>
       </c>
       <c r="M29" t="n">
         <v>2131.182543644155</v>
@@ -6484,31 +6484,31 @@
         <v>3976.452759614951</v>
       </c>
       <c r="Q29" t="n">
-        <v>4274.770370373407</v>
+        <v>4274.770370373408</v>
       </c>
       <c r="R29" t="n">
-        <v>4305.682471594872</v>
+        <v>4305.682471594873</v>
       </c>
       <c r="S29" t="n">
-        <v>4160.908930087624</v>
+        <v>4160.908930087625</v>
       </c>
       <c r="T29" t="n">
-        <v>4160.908930087624</v>
+        <v>4160.908930087625</v>
       </c>
       <c r="U29" t="n">
-        <v>3907.257394454483</v>
+        <v>4160.908930087625</v>
       </c>
       <c r="V29" t="n">
-        <v>3576.194507110912</v>
+        <v>3829.846042744054</v>
       </c>
       <c r="W29" t="n">
-        <v>3223.425851840798</v>
+        <v>3477.07738747394</v>
       </c>
       <c r="X29" t="n">
-        <v>2849.960093579718</v>
+        <v>3103.61162921286</v>
       </c>
       <c r="Y29" t="n">
-        <v>2459.820761603906</v>
+        <v>2713.472297237048</v>
       </c>
     </row>
     <row r="30">
@@ -6530,7 +6530,7 @@
         <v>504.7978651640974</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2633071909823</v>
+        <v>358.2633071909824</v>
       </c>
       <c r="G30" t="n">
         <v>221.0905542041166</v>
@@ -6539,28 +6539,28 @@
         <v>122.7691181380216</v>
       </c>
       <c r="I30" t="n">
-        <v>86.11364943189744</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="J30" t="n">
-        <v>127.3571946707751</v>
+        <v>229.6488472869304</v>
       </c>
       <c r="K30" t="n">
-        <v>237.4819682273322</v>
+        <v>601.5942054859403</v>
       </c>
       <c r="L30" t="n">
-        <v>431.8808576704339</v>
+        <v>1163.125036779466</v>
       </c>
       <c r="M30" t="n">
-        <v>1139.140073732051</v>
+        <v>1409.336239728584</v>
       </c>
       <c r="N30" t="n">
-        <v>1880.825350114797</v>
+        <v>1676.472565511212</v>
       </c>
       <c r="O30" t="n">
-        <v>2102.983103689781</v>
+        <v>1898.630319086196</v>
       </c>
       <c r="P30" t="n">
-        <v>2577.229361417491</v>
+        <v>2369.252846559001</v>
       </c>
       <c r="Q30" t="n">
         <v>2633.576141175236</v>
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>255.0498323598044</v>
+        <v>541.6593609407087</v>
       </c>
       <c r="C31" t="n">
-        <v>86.11364943189744</v>
+        <v>541.6593609407087</v>
       </c>
       <c r="D31" t="n">
-        <v>86.11364943189744</v>
+        <v>391.5427215283729</v>
       </c>
       <c r="E31" t="n">
-        <v>86.11364943189744</v>
+        <v>356.1044735867089</v>
       </c>
       <c r="F31" t="n">
-        <v>86.11364943189744</v>
+        <v>356.1044735867089</v>
       </c>
       <c r="G31" t="n">
-        <v>86.11364943189744</v>
+        <v>356.1044735867089</v>
       </c>
       <c r="H31" t="n">
-        <v>86.11364943189744</v>
+        <v>203.8522646237892</v>
       </c>
       <c r="I31" t="n">
-        <v>86.11364943189744</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="J31" t="n">
-        <v>86.11364943189744</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="K31" t="n">
         <v>212.8076375348879</v>
@@ -6648,25 +6648,25 @@
         <v>1289.276287324573</v>
       </c>
       <c r="S31" t="n">
-        <v>1289.276287324573</v>
+        <v>1085.761019183556</v>
       </c>
       <c r="T31" t="n">
-        <v>1289.276287324573</v>
+        <v>1085.761019183556</v>
       </c>
       <c r="U31" t="n">
-        <v>1289.276287324573</v>
+        <v>1085.761019183556</v>
       </c>
       <c r="V31" t="n">
-        <v>1034.591799118686</v>
+        <v>831.0765309776692</v>
       </c>
       <c r="W31" t="n">
-        <v>885.4804272315915</v>
+        <v>541.6593609407087</v>
       </c>
       <c r="X31" t="n">
-        <v>657.4908763335742</v>
+        <v>541.6593609407087</v>
       </c>
       <c r="Y31" t="n">
-        <v>436.6982971900441</v>
+        <v>541.6593609407087</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2026.701708859132</v>
+        <v>2127.037651510241</v>
       </c>
       <c r="C32" t="n">
-        <v>1657.739191918721</v>
+        <v>1758.075134569829</v>
       </c>
       <c r="D32" t="n">
-        <v>1299.47349331197</v>
+        <v>1399.809435963079</v>
       </c>
       <c r="E32" t="n">
-        <v>913.6852407137261</v>
+        <v>1014.021183364834</v>
       </c>
       <c r="F32" t="n">
-        <v>502.6993359241185</v>
+        <v>603.0352785752268</v>
       </c>
       <c r="G32" t="n">
-        <v>86.1136494318975</v>
+        <v>186.4495920830057</v>
       </c>
       <c r="H32" t="n">
-        <v>86.1136494318975</v>
+        <v>186.4495920830057</v>
       </c>
       <c r="I32" t="n">
-        <v>86.1136494318975</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="J32" t="n">
-        <v>316.5202242826253</v>
+        <v>316.520224282624</v>
       </c>
       <c r="K32" t="n">
-        <v>782.5847574885302</v>
+        <v>782.5847574885292</v>
       </c>
       <c r="L32" t="n">
-        <v>1413.055650717818</v>
+        <v>1413.055650717817</v>
       </c>
       <c r="M32" t="n">
-        <v>2131.182543644156</v>
+        <v>2131.182543644155</v>
       </c>
       <c r="N32" t="n">
-        <v>2846.297482930782</v>
+        <v>2846.29748293078</v>
       </c>
       <c r="O32" t="n">
-        <v>3476.37260399624</v>
+        <v>3476.372603996239</v>
       </c>
       <c r="P32" t="n">
-        <v>3976.452759614953</v>
+        <v>3976.452759614952</v>
       </c>
       <c r="Q32" t="n">
-        <v>4274.77037037341</v>
+        <v>4274.770370373408</v>
       </c>
       <c r="R32" t="n">
-        <v>4305.682471594875</v>
+        <v>4305.682471594873</v>
       </c>
       <c r="S32" t="n">
-        <v>4160.908930087627</v>
+        <v>4160.908930087625</v>
       </c>
       <c r="T32" t="n">
-        <v>3948.306990405679</v>
+        <v>3948.306990405677</v>
       </c>
       <c r="U32" t="n">
-        <v>3694.655454772538</v>
+        <v>3694.655454772536</v>
       </c>
       <c r="V32" t="n">
-        <v>3363.592567428967</v>
+        <v>3630.011237081369</v>
       </c>
       <c r="W32" t="n">
-        <v>3176.906639160146</v>
+        <v>3277.242581811254</v>
       </c>
       <c r="X32" t="n">
-        <v>2803.440880899066</v>
+        <v>2903.776823550174</v>
       </c>
       <c r="Y32" t="n">
-        <v>2413.301548923254</v>
+        <v>2513.637491574363</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2659.529089531571</v>
+        <v>987.4227591119312</v>
       </c>
       <c r="C33" t="n">
-        <v>2485.076060250444</v>
+        <v>812.9697298308042</v>
       </c>
       <c r="D33" t="n">
-        <v>2336.141650589193</v>
+        <v>664.035320169553</v>
       </c>
       <c r="E33" t="n">
-        <v>2176.904195583737</v>
+        <v>504.7978651640974</v>
       </c>
       <c r="F33" t="n">
-        <v>2030.369637610622</v>
+        <v>358.2633071909824</v>
       </c>
       <c r="G33" t="n">
-        <v>1893.196884623756</v>
+        <v>221.0905542041166</v>
       </c>
       <c r="H33" t="n">
-        <v>1794.875448557661</v>
+        <v>122.7691181380216</v>
       </c>
       <c r="I33" t="n">
-        <v>1758.219979851537</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="J33" t="n">
-        <v>1776.925052719565</v>
+        <v>229.6488472869304</v>
       </c>
       <c r="K33" t="n">
-        <v>1887.049826276123</v>
+        <v>601.5942054859403</v>
       </c>
       <c r="L33" t="n">
-        <v>2081.448715719224</v>
+        <v>1163.125036779466</v>
       </c>
       <c r="M33" t="n">
-        <v>2788.707931780842</v>
+        <v>1409.336239728584</v>
       </c>
       <c r="N33" t="n">
-        <v>3530.393208163588</v>
+        <v>1676.472565511212</v>
       </c>
       <c r="O33" t="n">
-        <v>3752.550961738571</v>
+        <v>1898.630319086196</v>
       </c>
       <c r="P33" t="n">
-        <v>4226.797219466282</v>
+        <v>2372.876576813906</v>
       </c>
       <c r="Q33" t="n">
-        <v>4305.682471594875</v>
+        <v>2633.576141175236</v>
       </c>
       <c r="R33" t="n">
-        <v>4301.250105860143</v>
+        <v>2629.143775440504</v>
       </c>
       <c r="S33" t="n">
-        <v>4156.773273342596</v>
+        <v>2484.666942922957</v>
       </c>
       <c r="T33" t="n">
-        <v>3960.866803980515</v>
+        <v>2288.760473560875</v>
       </c>
       <c r="U33" t="n">
-        <v>3732.74569048207</v>
+        <v>2060.63936006243</v>
       </c>
       <c r="V33" t="n">
-        <v>3497.593582250327</v>
+        <v>1825.487251830687</v>
       </c>
       <c r="W33" t="n">
-        <v>3243.356225522125</v>
+        <v>1571.249895102486</v>
       </c>
       <c r="X33" t="n">
-        <v>3035.504725316593</v>
+        <v>1363.398394896953</v>
       </c>
       <c r="Y33" t="n">
-        <v>2827.744426551639</v>
+        <v>1155.638096131999</v>
       </c>
     </row>
     <row r="34">
@@ -6834,43 +6834,43 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1020.603344166499</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="C34" t="n">
-        <v>851.6671612385918</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="D34" t="n">
-        <v>701.550521826256</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="E34" t="n">
-        <v>553.6374282438629</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="F34" t="n">
-        <v>406.7474807459525</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="G34" t="n">
-        <v>238.3658583948172</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="H34" t="n">
-        <v>86.1136494318975</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="I34" t="n">
-        <v>86.1136494318975</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="J34" t="n">
-        <v>86.1136494318975</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="K34" t="n">
-        <v>212.807637534888</v>
+        <v>212.8076375348879</v>
       </c>
       <c r="L34" t="n">
-        <v>430.4587576962466</v>
+        <v>430.4587576962465</v>
       </c>
       <c r="M34" t="n">
-        <v>670.3304700620232</v>
+        <v>670.3304700620231</v>
       </c>
       <c r="N34" t="n">
-        <v>909.9331856692338</v>
+        <v>909.9331856692337</v>
       </c>
       <c r="O34" t="n">
         <v>1115.228778841303</v>
@@ -6882,28 +6882,28 @@
         <v>1289.276287324573</v>
       </c>
       <c r="R34" t="n">
-        <v>1289.276287324573</v>
+        <v>1168.92515553596</v>
       </c>
       <c r="S34" t="n">
-        <v>1289.276287324573</v>
+        <v>965.4098873949436</v>
       </c>
       <c r="T34" t="n">
-        <v>1289.276287324573</v>
+        <v>965.4098873949436</v>
       </c>
       <c r="U34" t="n">
-        <v>1289.276287324573</v>
+        <v>965.4098873949436</v>
       </c>
       <c r="V34" t="n">
-        <v>1289.276287324573</v>
+        <v>710.7253991890567</v>
       </c>
       <c r="W34" t="n">
-        <v>1289.276287324573</v>
+        <v>710.7253991890567</v>
       </c>
       <c r="X34" t="n">
-        <v>1289.276287324573</v>
+        <v>482.7358482910394</v>
       </c>
       <c r="Y34" t="n">
-        <v>1202.251808996738</v>
+        <v>267.7621142621372</v>
       </c>
     </row>
     <row r="35">
@@ -6934,16 +6934,16 @@
         <v>186.4495920830057</v>
       </c>
       <c r="I35" t="n">
-        <v>86.11364943189744</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="J35" t="n">
-        <v>316.5202242826243</v>
+        <v>316.520224282624</v>
       </c>
       <c r="K35" t="n">
-        <v>782.5847574885291</v>
+        <v>782.5847574885288</v>
       </c>
       <c r="L35" t="n">
-        <v>1413.055650717817</v>
+        <v>1413.055650717816</v>
       </c>
       <c r="M35" t="n">
         <v>2131.182543644155</v>
@@ -6958,19 +6958,19 @@
         <v>3976.452759614951</v>
       </c>
       <c r="Q35" t="n">
-        <v>4274.770370373407</v>
+        <v>4274.770370373408</v>
       </c>
       <c r="R35" t="n">
-        <v>4305.682471594872</v>
+        <v>4305.682471594873</v>
       </c>
       <c r="S35" t="n">
-        <v>4160.908930087624</v>
+        <v>4196.743804744271</v>
       </c>
       <c r="T35" t="n">
-        <v>4160.908930087624</v>
+        <v>4196.743804744271</v>
       </c>
       <c r="U35" t="n">
-        <v>4160.908930087624</v>
+        <v>3943.09226911113</v>
       </c>
       <c r="V35" t="n">
         <v>3943.09226911113</v>
@@ -7004,7 +7004,7 @@
         <v>504.7978651640974</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2633071909823</v>
+        <v>358.2633071909824</v>
       </c>
       <c r="G36" t="n">
         <v>221.0905542041166</v>
@@ -7013,28 +7013,28 @@
         <v>122.7691181380216</v>
       </c>
       <c r="I36" t="n">
-        <v>86.11364943189744</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="J36" t="n">
         <v>104.8187222999257</v>
       </c>
       <c r="K36" t="n">
-        <v>214.9434958564828</v>
+        <v>476.7640804989355</v>
       </c>
       <c r="L36" t="n">
-        <v>409.3423852995845</v>
+        <v>671.1629699420371</v>
       </c>
       <c r="M36" t="n">
-        <v>1116.601601361202</v>
+        <v>1378.422186003654</v>
       </c>
       <c r="N36" t="n">
-        <v>1858.286877743948</v>
+        <v>2120.107462386401</v>
       </c>
       <c r="O36" t="n">
-        <v>2080.444631318932</v>
+        <v>2342.265215961384</v>
       </c>
       <c r="P36" t="n">
-        <v>2554.690889046642</v>
+        <v>2501.233332735557</v>
       </c>
       <c r="Q36" t="n">
         <v>2633.576141175236</v>
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1140.293305516628</v>
+        <v>573.2958944515702</v>
       </c>
       <c r="C37" t="n">
-        <v>971.3571225887209</v>
+        <v>404.3597115236633</v>
       </c>
       <c r="D37" t="n">
-        <v>821.2404831763852</v>
+        <v>404.3597115236633</v>
       </c>
       <c r="E37" t="n">
-        <v>673.3273895939921</v>
+        <v>256.4466179412702</v>
       </c>
       <c r="F37" t="n">
-        <v>526.4374420960817</v>
+        <v>256.4466179412702</v>
       </c>
       <c r="G37" t="n">
-        <v>358.0558197449462</v>
+        <v>88.06499559013484</v>
       </c>
       <c r="H37" t="n">
-        <v>205.8036107820266</v>
+        <v>88.06499559013484</v>
       </c>
       <c r="I37" t="n">
-        <v>88.0649955901348</v>
+        <v>88.06499559013484</v>
       </c>
       <c r="J37" t="n">
-        <v>86.11364943189744</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="K37" t="n">
         <v>212.8076375348879</v>
@@ -7119,28 +7119,28 @@
         <v>1289.276287324573</v>
       </c>
       <c r="R37" t="n">
-        <v>1289.276287324573</v>
+        <v>1272.351080216788</v>
       </c>
       <c r="S37" t="n">
-        <v>1289.276287324573</v>
+        <v>1272.351080216788</v>
       </c>
       <c r="T37" t="n">
-        <v>1289.276287324573</v>
+        <v>1272.351080216788</v>
       </c>
       <c r="U37" t="n">
-        <v>1289.276287324573</v>
+        <v>1272.351080216788</v>
       </c>
       <c r="V37" t="n">
-        <v>1289.276287324573</v>
+        <v>1272.351080216788</v>
       </c>
       <c r="W37" t="n">
-        <v>1289.276287324573</v>
+        <v>982.9339101798273</v>
       </c>
       <c r="X37" t="n">
-        <v>1289.276287324573</v>
+        <v>754.94435928181</v>
       </c>
       <c r="Y37" t="n">
-        <v>1289.276287324573</v>
+        <v>754.94435928181</v>
       </c>
     </row>
     <row r="38">
@@ -7168,46 +7168,46 @@
         <v>399.1946814616589</v>
       </c>
       <c r="H38" t="n">
-        <v>86.1136494318975</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="I38" t="n">
-        <v>86.1136494318975</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="J38" t="n">
-        <v>316.5202242826253</v>
+        <v>316.5202242826244</v>
       </c>
       <c r="K38" t="n">
-        <v>782.5847574885302</v>
+        <v>782.5847574885292</v>
       </c>
       <c r="L38" t="n">
-        <v>1413.055650717818</v>
+        <v>1413.055650717816</v>
       </c>
       <c r="M38" t="n">
-        <v>2131.182543644156</v>
+        <v>2131.182543644155</v>
       </c>
       <c r="N38" t="n">
-        <v>2846.297482930782</v>
+        <v>2846.29748293078</v>
       </c>
       <c r="O38" t="n">
-        <v>3476.37260399624</v>
+        <v>3476.372603996238</v>
       </c>
       <c r="P38" t="n">
-        <v>3976.452759614953</v>
+        <v>3976.452759614951</v>
       </c>
       <c r="Q38" t="n">
-        <v>4274.77037037341</v>
+        <v>4274.770370373408</v>
       </c>
       <c r="R38" t="n">
-        <v>4305.682471594875</v>
+        <v>4305.682471594873</v>
       </c>
       <c r="S38" t="n">
-        <v>4160.908930087627</v>
+        <v>4305.682471594873</v>
       </c>
       <c r="T38" t="n">
-        <v>4160.908930087627</v>
+        <v>4305.682471594873</v>
       </c>
       <c r="U38" t="n">
-        <v>3907.257394454486</v>
+        <v>4173.819213803592</v>
       </c>
       <c r="V38" t="n">
         <v>3842.756326460022</v>
@@ -7250,28 +7250,28 @@
         <v>122.7691181380216</v>
       </c>
       <c r="I39" t="n">
-        <v>86.1136494318975</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="J39" t="n">
-        <v>104.8187222999258</v>
+        <v>229.6488472869305</v>
       </c>
       <c r="K39" t="n">
-        <v>214.9434958564829</v>
+        <v>601.5942054859404</v>
       </c>
       <c r="L39" t="n">
-        <v>409.3423852995845</v>
+        <v>1163.125036779467</v>
       </c>
       <c r="M39" t="n">
-        <v>1116.601601361202</v>
+        <v>1870.384252841084</v>
       </c>
       <c r="N39" t="n">
-        <v>1858.286877743948</v>
+        <v>2137.520578623712</v>
       </c>
       <c r="O39" t="n">
-        <v>2080.444631318932</v>
+        <v>2359.678332198696</v>
       </c>
       <c r="P39" t="n">
-        <v>2554.690889046642</v>
+        <v>2518.646448972868</v>
       </c>
       <c r="Q39" t="n">
         <v>2633.576141175236</v>
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>575.5512700030653</v>
+        <v>255.0498323598044</v>
       </c>
       <c r="C40" t="n">
-        <v>406.6150870751584</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="D40" t="n">
-        <v>406.6150870751584</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="E40" t="n">
-        <v>406.6150870751584</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="F40" t="n">
-        <v>406.6150870751584</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="G40" t="n">
-        <v>238.3658583948172</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="H40" t="n">
-        <v>86.1136494318975</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="I40" t="n">
-        <v>86.1136494318975</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="J40" t="n">
-        <v>86.1136494318975</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="K40" t="n">
         <v>212.807637534888</v>
@@ -7341,43 +7341,43 @@
         <v>430.4587576962466</v>
       </c>
       <c r="M40" t="n">
-        <v>670.3304700620232</v>
+        <v>670.3304700620233</v>
       </c>
       <c r="N40" t="n">
-        <v>909.9331856692338</v>
+        <v>909.933185669234</v>
       </c>
       <c r="O40" t="n">
-        <v>1115.228778841303</v>
+        <v>1115.228778841304</v>
       </c>
       <c r="P40" t="n">
-        <v>1267.373942480779</v>
+        <v>1267.37394248078</v>
       </c>
       <c r="Q40" t="n">
         <v>1289.276287324573</v>
       </c>
       <c r="R40" t="n">
-        <v>1289.276287324573</v>
+        <v>1168.925155535961</v>
       </c>
       <c r="S40" t="n">
-        <v>1085.761019183556</v>
+        <v>965.409887394944</v>
       </c>
       <c r="T40" t="n">
-        <v>1085.761019183556</v>
+        <v>965.409887394944</v>
       </c>
       <c r="U40" t="n">
-        <v>1085.761019183556</v>
+        <v>965.409887394944</v>
       </c>
       <c r="V40" t="n">
-        <v>1085.761019183556</v>
+        <v>885.4804272315915</v>
       </c>
       <c r="W40" t="n">
-        <v>796.3438491465954</v>
+        <v>885.4804272315915</v>
       </c>
       <c r="X40" t="n">
-        <v>796.3438491465954</v>
+        <v>657.4908763335742</v>
       </c>
       <c r="Y40" t="n">
-        <v>575.5512700030653</v>
+        <v>436.6982971900441</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2005.392523365086</v>
+        <v>2440.118683540002</v>
       </c>
       <c r="C41" t="n">
-        <v>1636.430006424675</v>
+        <v>2071.156166599591</v>
       </c>
       <c r="D41" t="n">
-        <v>1299.47349331197</v>
+        <v>1712.89046799284</v>
       </c>
       <c r="E41" t="n">
-        <v>913.685240713726</v>
+        <v>1327.102215394596</v>
       </c>
       <c r="F41" t="n">
-        <v>502.6993359241185</v>
+        <v>916.1163106049881</v>
       </c>
       <c r="G41" t="n">
-        <v>86.11364943189747</v>
+        <v>499.5306241127671</v>
       </c>
       <c r="H41" t="n">
-        <v>86.11364943189747</v>
+        <v>186.4495920830057</v>
       </c>
       <c r="I41" t="n">
         <v>86.11364943189747</v>
@@ -7441,22 +7441,22 @@
         <v>4305.682471594873</v>
       </c>
       <c r="T41" t="n">
-        <v>4093.080531912926</v>
+        <v>4305.682471594873</v>
       </c>
       <c r="U41" t="n">
-        <v>3839.428996279785</v>
+        <v>4274.155156454701</v>
       </c>
       <c r="V41" t="n">
-        <v>3508.366108936214</v>
+        <v>3943.09226911113</v>
       </c>
       <c r="W41" t="n">
-        <v>3155.5974536661</v>
+        <v>3590.323613841016</v>
       </c>
       <c r="X41" t="n">
-        <v>2782.13169540502</v>
+        <v>3216.857855579936</v>
       </c>
       <c r="Y41" t="n">
-        <v>2391.992363429208</v>
+        <v>2826.718523604124</v>
       </c>
     </row>
     <row r="42">
@@ -7490,25 +7490,25 @@
         <v>86.11364943189747</v>
       </c>
       <c r="J42" t="n">
-        <v>104.8187222999257</v>
+        <v>229.6488472869305</v>
       </c>
       <c r="K42" t="n">
-        <v>214.9434958564829</v>
+        <v>601.5942054859404</v>
       </c>
       <c r="L42" t="n">
-        <v>747.1589986239717</v>
+        <v>1163.125036779467</v>
       </c>
       <c r="M42" t="n">
-        <v>1454.418214685589</v>
+        <v>1409.336239728584</v>
       </c>
       <c r="N42" t="n">
-        <v>2196.103491068335</v>
+        <v>1676.472565511212</v>
       </c>
       <c r="O42" t="n">
-        <v>2418.261244643319</v>
+        <v>1898.630319086197</v>
       </c>
       <c r="P42" t="n">
-        <v>2577.229361417491</v>
+        <v>2369.252846559001</v>
       </c>
       <c r="Q42" t="n">
         <v>2633.576141175236</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3869.349518558747</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="C43" t="n">
-        <v>3700.41333563084</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="D43" t="n">
-        <v>3550.296696218504</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="E43" t="n">
-        <v>3402.383602636111</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="F43" t="n">
-        <v>3270.901456053333</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="G43" t="n">
-        <v>3102.519833702198</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="H43" t="n">
-        <v>3102.519833702198</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="I43" t="n">
-        <v>3102.519833702198</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="J43" t="n">
-        <v>3102.519833702198</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="K43" t="n">
-        <v>3229.213821805189</v>
+        <v>212.807637534888</v>
       </c>
       <c r="L43" t="n">
-        <v>3446.864941966547</v>
+        <v>430.4587576962466</v>
       </c>
       <c r="M43" t="n">
-        <v>3686.736654332324</v>
+        <v>670.3304700620233</v>
       </c>
       <c r="N43" t="n">
-        <v>3926.339369939534</v>
+        <v>909.933185669234</v>
       </c>
       <c r="O43" t="n">
-        <v>4131.634963111604</v>
+        <v>1115.228778841304</v>
       </c>
       <c r="P43" t="n">
-        <v>4283.780126751079</v>
+        <v>1267.37394248078</v>
       </c>
       <c r="Q43" t="n">
-        <v>4305.682471594873</v>
+        <v>1289.276287324573</v>
       </c>
       <c r="R43" t="n">
-        <v>4305.682471594873</v>
+        <v>1289.276287324573</v>
       </c>
       <c r="S43" t="n">
-        <v>4305.682471594873</v>
+        <v>1289.276287324573</v>
       </c>
       <c r="T43" t="n">
-        <v>4305.682471594873</v>
+        <v>1064.609405610903</v>
       </c>
       <c r="U43" t="n">
-        <v>4305.682471594873</v>
+        <v>775.4695140605913</v>
       </c>
       <c r="V43" t="n">
-        <v>4050.997983388987</v>
+        <v>520.7850258547045</v>
       </c>
       <c r="W43" t="n">
-        <v>4050.997983388987</v>
+        <v>306.9062285754276</v>
       </c>
       <c r="X43" t="n">
-        <v>4050.997983388987</v>
+        <v>306.9062285754276</v>
       </c>
       <c r="Y43" t="n">
-        <v>4050.997983388987</v>
+        <v>86.11364943189747</v>
       </c>
     </row>
     <row r="44">
@@ -7624,40 +7624,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2440.118683540002</v>
+        <v>2026.701708859132</v>
       </c>
       <c r="C44" t="n">
-        <v>2071.156166599591</v>
+        <v>1657.739191918721</v>
       </c>
       <c r="D44" t="n">
-        <v>1712.89046799284</v>
+        <v>1299.47349331197</v>
       </c>
       <c r="E44" t="n">
-        <v>1327.102215394596</v>
+        <v>913.685240713726</v>
       </c>
       <c r="F44" t="n">
-        <v>916.1163106049881</v>
+        <v>502.6993359241185</v>
       </c>
       <c r="G44" t="n">
-        <v>499.5306241127671</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="H44" t="n">
-        <v>186.4495920830057</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="I44" t="n">
         <v>86.11364943189747</v>
       </c>
       <c r="J44" t="n">
-        <v>316.5202242826244</v>
+        <v>316.5202242826232</v>
       </c>
       <c r="K44" t="n">
-        <v>782.5847574885292</v>
+        <v>782.5847574885281</v>
       </c>
       <c r="L44" t="n">
         <v>1413.055650717816</v>
       </c>
       <c r="M44" t="n">
-        <v>2131.182543644155</v>
+        <v>2131.182543644154</v>
       </c>
       <c r="N44" t="n">
         <v>2846.29748293078</v>
@@ -7678,22 +7678,22 @@
         <v>4160.908930087625</v>
       </c>
       <c r="T44" t="n">
-        <v>3948.306990405677</v>
+        <v>4114.389717406972</v>
       </c>
       <c r="U44" t="n">
-        <v>3948.306990405677</v>
+        <v>3860.738181773831</v>
       </c>
       <c r="V44" t="n">
-        <v>3943.09226911113</v>
+        <v>3529.67529443026</v>
       </c>
       <c r="W44" t="n">
-        <v>3590.323613841016</v>
+        <v>3176.906639160146</v>
       </c>
       <c r="X44" t="n">
-        <v>3216.857855579936</v>
+        <v>2803.440880899066</v>
       </c>
       <c r="Y44" t="n">
-        <v>2826.718523604124</v>
+        <v>2413.301548923254</v>
       </c>
     </row>
     <row r="45">
@@ -7727,25 +7727,25 @@
         <v>86.11364943189747</v>
       </c>
       <c r="J45" t="n">
-        <v>104.8187222999257</v>
+        <v>229.6488472869305</v>
       </c>
       <c r="K45" t="n">
-        <v>214.9434958564829</v>
+        <v>601.5942054859404</v>
       </c>
       <c r="L45" t="n">
-        <v>747.1589986239717</v>
+        <v>1163.125036779467</v>
       </c>
       <c r="M45" t="n">
-        <v>1454.418214685589</v>
+        <v>1409.336239728584</v>
       </c>
       <c r="N45" t="n">
-        <v>2196.103491068335</v>
+        <v>1676.472565511212</v>
       </c>
       <c r="O45" t="n">
-        <v>2418.261244643319</v>
+        <v>1898.630319086197</v>
       </c>
       <c r="P45" t="n">
-        <v>2577.229361417491</v>
+        <v>2369.252846559001</v>
       </c>
       <c r="Q45" t="n">
         <v>2633.576141175236</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>882.9609407806637</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="C46" t="n">
-        <v>714.0247578527568</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="D46" t="n">
-        <v>563.908118440421</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="E46" t="n">
-        <v>415.9950248580279</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="F46" t="n">
-        <v>269.1050773601175</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="G46" t="n">
-        <v>100.7234550089822</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="H46" t="n">
         <v>86.11364943189747</v>
@@ -7830,28 +7830,28 @@
         <v>1289.276287324573</v>
       </c>
       <c r="R46" t="n">
-        <v>1289.276287324573</v>
+        <v>1168.925155535961</v>
       </c>
       <c r="S46" t="n">
-        <v>1289.276287324573</v>
+        <v>1168.925155535961</v>
       </c>
       <c r="T46" t="n">
-        <v>1064.609405610903</v>
+        <v>1168.925155535961</v>
       </c>
       <c r="U46" t="n">
-        <v>1064.609405610903</v>
+        <v>1078.997437716293</v>
       </c>
       <c r="V46" t="n">
-        <v>1064.609405610903</v>
+        <v>824.3129495104056</v>
       </c>
       <c r="W46" t="n">
-        <v>1064.609405610903</v>
+        <v>534.8957794734449</v>
       </c>
       <c r="X46" t="n">
-        <v>1064.609405610903</v>
+        <v>306.9062285754276</v>
       </c>
       <c r="Y46" t="n">
-        <v>1064.609405610903</v>
+        <v>86.11364943189747</v>
       </c>
     </row>
   </sheetData>
@@ -8063,7 +8063,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>173.111405903722</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
@@ -8072,13 +8072,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P3" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8300,13 +8300,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8534,22 +8534,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8771,13 +8771,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>48.10560617264079</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>56.94306717106818</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9011,22 +9011,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>2.438569758332875</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>48.10560617264096</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9251,10 +9251,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>48.10560617263977</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>48.10560617264096</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9479,28 +9479,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>6.233205181928625</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>48.1056061726409</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>15.92129162593137</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,28 +9716,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>341.2289023478658</v>
+        <v>367.1800117126458</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720741</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9953,28 +9953,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>314.8024350491238</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.76613370792869</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10190,28 +10190,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>22.76613370792871</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>314.8024350491238</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,19 +10427,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.76613370792822</v>
+        <v>206.4169541450358</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10667,7 +10667,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10682,10 +10682,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.76613370792869</v>
+        <v>76.76366533528753</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10901,28 +10901,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.76613370792869</v>
+        <v>59.17465903497289</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11138,28 +11138,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>341.2289023478658</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>314.8024350491229</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720726</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11375,28 +11375,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>341.2289023478658</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>314.8024350491229</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>286.6865262672158</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>76.37501923908681</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4960408938905</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23418,28 +23418,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>60.68140124481179</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>123.2665578794171</v>
       </c>
       <c r="J13" t="n">
-        <v>17.69584188176917</v>
+        <v>17.69584188176918</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23466,22 +23466,22 @@
         <v>129.1731816677914</v>
       </c>
       <c r="S13" t="n">
-        <v>205.3658819001187</v>
+        <v>202.911405347091</v>
       </c>
       <c r="T13" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23506,10 +23506,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23545,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>154.6528871281403</v>
+        <v>30.99592277424351</v>
       </c>
       <c r="T14" t="n">
-        <v>83.73606769524832</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>144.7109147351754</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23670,7 +23670,7 @@
         <v>166.9207765545704</v>
       </c>
       <c r="H16" t="n">
-        <v>35.71412357431889</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I16" t="n">
         <v>123.2665578794171</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>129.1731816677914</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23746,13 +23746,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>135.3220053498719</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4960408938905</v>
+        <v>118.4960408938906</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>154.6528871281403</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V17" t="n">
-        <v>325.5647609508899</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23913,7 +23913,7 @@
         <v>123.2665578794171</v>
       </c>
       <c r="J19" t="n">
-        <v>17.69584188176914</v>
+        <v>17.69584188176918</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>205.3658819001187</v>
       </c>
       <c r="T19" t="n">
-        <v>223.3729047207587</v>
+        <v>58.35886639452585</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>60.69561706280379</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23983,13 +23983,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>315.0408840752156</v>
+        <v>305.995026256504</v>
       </c>
       <c r="I20" t="n">
-        <v>66.26437980770933</v>
+        <v>118.4960408938905</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24034,7 +24034,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24126,31 +24126,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>116.8074848669422</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>123.2665578794171</v>
       </c>
       <c r="J22" t="n">
-        <v>17.69584188176914</v>
+        <v>17.69584188176917</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24177,10 +24177,10 @@
         <v>129.1731816677914</v>
       </c>
       <c r="S22" t="n">
-        <v>205.3658819001187</v>
+        <v>173.7244338316374</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U22" t="n">
         <v>286.260654658097</v>
@@ -24192,10 +24192,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24208,7 +24208,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>164.4218997312797</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24223,10 +24223,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>309.9502217094637</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>99.33258322459716</v>
+        <v>99.33258322459717</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>143.3258060921758</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>79.93129507175951</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.1150202768096</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24366,10 +24366,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24384,10 +24384,10 @@
         <v>150.7296868732905</v>
       </c>
       <c r="I25" t="n">
-        <v>116.5612290399728</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1.931832696654979</v>
+        <v>1.931832696654993</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24417,22 +24417,22 @@
         <v>201.4801154596064</v>
       </c>
       <c r="T25" t="n">
-        <v>65.6441173419818</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.248492634809</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>24.11436266965472</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24457,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>263.8962011556184</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>99.33258322459716</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,13 +24496,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>210.475920285128</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.1150202768096</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>322.589684388533</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>73.09034352996856</v>
       </c>
       <c r="C28" t="n">
-        <v>30.40699549541688</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24615,16 +24615,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.697806127624</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>116.5612290399728</v>
       </c>
       <c r="J28" t="n">
-        <v>1.931832696654979</v>
+        <v>1.931832696654993</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24654,13 +24654,13 @@
         <v>201.4801154596064</v>
       </c>
       <c r="T28" t="n">
-        <v>222.420212896533</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.248492634809</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24697,10 +24697,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>263.8962011556184</v>
+        <v>112.113764103405</v>
       </c>
       <c r="I29" t="n">
-        <v>99.33258322459716</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24736,7 +24736,7 @@
         <v>210.475920285128</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.1150202768096</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>111.3500971843218</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24855,13 +24855,13 @@
         <v>166.697806127624</v>
       </c>
       <c r="H31" t="n">
-        <v>150.7296868732905</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>116.5612290399728</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>1.931832696654979</v>
+        <v>1.931832696654993</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>119.1476204707264</v>
       </c>
       <c r="S31" t="n">
-        <v>201.4801154596064</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>222.420212896533</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>138.9027401683678</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24937,7 +24937,7 @@
         <v>309.9502217094637</v>
       </c>
       <c r="I32" t="n">
-        <v>99.33258322459716</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24976,10 +24976,10 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>263.7544829558788</v>
       </c>
       <c r="W32" t="n">
-        <v>164.4218997312798</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25077,28 +25077,28 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.697806127624</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>150.7296868732905</v>
       </c>
       <c r="I34" t="n">
         <v>116.5612290399728</v>
       </c>
       <c r="J34" t="n">
-        <v>1.931832696654979</v>
+        <v>1.931832696654993</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>119.1476204707264</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>201.4801154596064</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>222.420212896533</v>
@@ -25134,16 +25134,16 @@
         <v>286.248492634809</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>132.4304198075389</v>
+        <v>5.760656663481626</v>
       </c>
     </row>
     <row r="35">
@@ -25204,16 +25204,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>35.4765259100796</v>
       </c>
       <c r="T35" t="n">
         <v>210.475920285128</v>
       </c>
       <c r="U35" t="n">
-        <v>251.1150202768096</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>112.1137641034059</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>32.33882819207201</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>150.7296868732905</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>116.5612290399728</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>119.1476204707264</v>
+        <v>102.3916654340196</v>
       </c>
       <c r="S37" t="n">
         <v>201.4801154596064</v>
@@ -25374,10 +25374,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25411,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>99.33258322459716</v>
+        <v>99.33258322459714</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>143.3258060921758</v>
       </c>
       <c r="T38" t="n">
         <v>210.475920285128</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>120.5703950634411</v>
       </c>
       <c r="V38" t="n">
-        <v>263.8962011556156</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25563,16 +25563,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1310697340862248</v>
+        <v>166.697806127624</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>150.7296868732905</v>
       </c>
       <c r="I40" t="n">
         <v>116.5612290399728</v>
       </c>
       <c r="J40" t="n">
-        <v>1.931832696654979</v>
+        <v>1.931832696654965</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25596,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>119.1476204707264</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>222.420212896533</v>
+        <v>222.4202128965329</v>
       </c>
       <c r="U40" t="n">
         <v>286.248492634809</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>173.0074777621091</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25633,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>21.09609363910556</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25645,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>309.9502217094637</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>99.33258322459714</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,10 +25681,10 @@
         <v>143.3258060921758</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>210.475920285128</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>219.9029782880388</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>15.25372290598136</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.697806127624</v>
       </c>
       <c r="H43" t="n">
         <v>150.7296868732905</v>
@@ -25839,22 +25839,22 @@
         <v>201.4801154596064</v>
       </c>
       <c r="T43" t="n">
-        <v>222.4202128965329</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.248492634809</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>74.78298903010688</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>309.9502217094637</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>99.33258322459714</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,13 +25918,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>164.4218997312813</v>
       </c>
       <c r="U44" t="n">
-        <v>251.1150202768096</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>322.589684388533</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26022,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.697806127624</v>
       </c>
       <c r="H46" t="n">
-        <v>136.2659793519766</v>
+        <v>150.7296868732905</v>
       </c>
       <c r="I46" t="n">
         <v>116.5612290399728</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>119.1476204707264</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>201.4801154596064</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>222.4202128965329</v>
       </c>
       <c r="U46" t="n">
-        <v>286.248492634809</v>
+        <v>197.2200519933376</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>757447.3959325987</v>
+        <v>757447.3959325985</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>757447.3959325987</v>
+        <v>757447.3959325986</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>757447.3959325989</v>
+        <v>757447.3959325986</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>813028.2688452987</v>
+        <v>813028.2688452988</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>813028.2688452986</v>
+        <v>813028.2688452988</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>813028.2688452989</v>
+        <v>813028.2688452988</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>813028.2688452989</v>
+        <v>813028.2688452988</v>
       </c>
     </row>
     <row r="15">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049982</v>
+        <v>574729.2389049981</v>
       </c>
       <c r="C2" t="n">
         <v>574729.2389049983</v>
@@ -26322,40 +26322,40 @@
         <v>574729.2389049983</v>
       </c>
       <c r="E2" t="n">
-        <v>472829.9179706526</v>
+        <v>472829.9179706524</v>
       </c>
       <c r="F2" t="n">
         <v>472829.9179706524</v>
       </c>
       <c r="G2" t="n">
-        <v>472829.9179706526</v>
+        <v>472829.9179706524</v>
       </c>
       <c r="H2" t="n">
-        <v>472829.9179706527</v>
+        <v>472829.9179706523</v>
       </c>
       <c r="I2" t="n">
+        <v>511773.2970641169</v>
+      </c>
+      <c r="J2" t="n">
         <v>511773.2970641167</v>
-      </c>
-      <c r="J2" t="n">
-        <v>511773.2970641165</v>
       </c>
       <c r="K2" t="n">
         <v>511773.2970641166</v>
       </c>
       <c r="L2" t="n">
+        <v>511773.2970641168</v>
+      </c>
+      <c r="M2" t="n">
         <v>511773.2970641167</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>511773.2970641169</v>
+      </c>
+      <c r="O2" t="n">
+        <v>511773.2970641167</v>
+      </c>
+      <c r="P2" t="n">
         <v>511773.2970641166</v>
-      </c>
-      <c r="N2" t="n">
-        <v>511773.2970641167</v>
-      </c>
-      <c r="O2" t="n">
-        <v>511773.2970641165</v>
-      </c>
-      <c r="P2" t="n">
-        <v>511773.2970641165</v>
       </c>
     </row>
     <row r="3">
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.898095428667148e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>133368.5290586868</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910605</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26420,28 +26420,28 @@
         <v>329330.531561994</v>
       </c>
       <c r="C4" t="n">
-        <v>329330.531561994</v>
+        <v>329330.5315619939</v>
       </c>
       <c r="D4" t="n">
         <v>329330.531561994</v>
       </c>
       <c r="E4" t="n">
+        <v>48842.045431926</v>
+      </c>
+      <c r="F4" t="n">
         <v>48842.04543192601</v>
-      </c>
-      <c r="F4" t="n">
-        <v>48842.045431926</v>
       </c>
       <c r="G4" t="n">
         <v>48842.045431926</v>
       </c>
       <c r="H4" t="n">
-        <v>48842.045431926</v>
+        <v>48842.04543192601</v>
       </c>
       <c r="I4" t="n">
         <v>46084.63535700789</v>
       </c>
       <c r="J4" t="n">
-        <v>46084.63535700789</v>
+        <v>46084.6353570079</v>
       </c>
       <c r="K4" t="n">
         <v>46084.63535700789</v>
@@ -26459,7 +26459,7 @@
         <v>46084.63535700788</v>
       </c>
       <c r="P4" t="n">
-        <v>46084.63535700789</v>
+        <v>46084.63535700788</v>
       </c>
     </row>
     <row r="5">
@@ -26478,34 +26478,34 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>69171.54328360136</v>
+        <v>69171.54328360138</v>
       </c>
       <c r="F5" t="n">
         <v>69171.54328360136</v>
       </c>
       <c r="G5" t="n">
-        <v>69171.54328360139</v>
+        <v>69171.54328360138</v>
       </c>
       <c r="H5" t="n">
-        <v>69171.54328360139</v>
+        <v>69171.54328360138</v>
       </c>
       <c r="I5" t="n">
-        <v>81079.66231700635</v>
+        <v>81079.66231700634</v>
       </c>
       <c r="J5" t="n">
-        <v>81079.66231700632</v>
+        <v>81079.66231700634</v>
       </c>
       <c r="K5" t="n">
-        <v>81079.66231700632</v>
+        <v>81079.66231700634</v>
       </c>
       <c r="L5" t="n">
-        <v>81079.66231700635</v>
+        <v>81079.66231700634</v>
       </c>
       <c r="M5" t="n">
-        <v>81079.66231700632</v>
+        <v>81079.66231700634</v>
       </c>
       <c r="N5" t="n">
-        <v>81079.66231700635</v>
+        <v>81079.66231700634</v>
       </c>
       <c r="O5" t="n">
         <v>81079.66231700634</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>116348.0070476948</v>
+        <v>116348.0070476946</v>
       </c>
       <c r="C6" t="n">
-        <v>197117.4385792426</v>
+        <v>197117.4385792427</v>
       </c>
       <c r="D6" t="n">
         <v>197117.4385792426</v>
       </c>
       <c r="E6" t="n">
-        <v>-326176.6134067136</v>
+        <v>-329815.8748686548</v>
       </c>
       <c r="F6" t="n">
-        <v>354816.3292551251</v>
+        <v>351177.0677931841</v>
       </c>
       <c r="G6" t="n">
-        <v>354816.3292551248</v>
+        <v>351177.0677931841</v>
       </c>
       <c r="H6" t="n">
-        <v>354816.3292551253</v>
+        <v>351177.067793184</v>
       </c>
       <c r="I6" t="n">
-        <v>251240.4703314156</v>
+        <v>248992.0438370987</v>
       </c>
       <c r="J6" t="n">
-        <v>321549.0567909962</v>
+        <v>319300.6302966791</v>
       </c>
       <c r="K6" t="n">
-        <v>384608.9993901023</v>
+        <v>382360.5728957852</v>
       </c>
       <c r="L6" t="n">
-        <v>384608.9993901025</v>
+        <v>382360.5728957854</v>
       </c>
       <c r="M6" t="n">
-        <v>214182.5828263913</v>
+        <v>211934.1563320742</v>
       </c>
       <c r="N6" t="n">
-        <v>384608.9993901025</v>
+        <v>382360.5728957854</v>
       </c>
       <c r="O6" t="n">
-        <v>384608.9993901023</v>
+        <v>382360.5728957853</v>
       </c>
       <c r="P6" t="n">
-        <v>384608.9993901023</v>
+        <v>382360.5728957852</v>
       </c>
     </row>
   </sheetData>
@@ -26746,34 +26746,34 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>593.4761003380636</v>
+        <v>593.4761003380635</v>
       </c>
       <c r="F3" t="n">
         <v>593.4761003380635</v>
       </c>
       <c r="G3" t="n">
-        <v>593.4761003380638</v>
+        <v>593.4761003380635</v>
       </c>
       <c r="H3" t="n">
-        <v>593.4761003380638</v>
+        <v>593.4761003380636</v>
       </c>
       <c r="I3" t="n">
-        <v>717.1233370992782</v>
+        <v>717.123337099278</v>
       </c>
       <c r="J3" t="n">
-        <v>717.1233370992782</v>
+        <v>717.123337099278</v>
       </c>
       <c r="K3" t="n">
-        <v>717.1233370992782</v>
+        <v>717.123337099278</v>
       </c>
       <c r="L3" t="n">
-        <v>717.1233370992782</v>
+        <v>717.123337099278</v>
       </c>
       <c r="M3" t="n">
-        <v>717.1233370992782</v>
+        <v>717.123337099278</v>
       </c>
       <c r="N3" t="n">
-        <v>717.1233370992782</v>
+        <v>717.1233370992783</v>
       </c>
       <c r="O3" t="n">
         <v>717.1233370992783</v>
@@ -26798,19 +26798,19 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>924.8974390827563</v>
+        <v>924.8974390827564</v>
       </c>
       <c r="F4" t="n">
         <v>924.8974390827563</v>
       </c>
       <c r="G4" t="n">
-        <v>924.8974390827567</v>
+        <v>924.8974390827564</v>
       </c>
       <c r="H4" t="n">
-        <v>924.8974390827567</v>
+        <v>924.8974390827564</v>
       </c>
       <c r="I4" t="n">
-        <v>1076.420617898719</v>
+        <v>1076.420617898718</v>
       </c>
       <c r="J4" t="n">
         <v>1076.420617898718</v>
@@ -26819,13 +26819,13 @@
         <v>1076.420617898718</v>
       </c>
       <c r="L4" t="n">
-        <v>1076.420617898719</v>
+        <v>1076.420617898718</v>
       </c>
       <c r="M4" t="n">
         <v>1076.420617898718</v>
       </c>
       <c r="N4" t="n">
-        <v>1076.420617898719</v>
+        <v>1076.420617898718</v>
       </c>
       <c r="O4" t="n">
         <v>1076.420617898718</v>
@@ -26968,19 +26968,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>593.4761003380636</v>
+        <v>593.4761003380635</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>123.6472367612143</v>
+        <v>123.6472367612145</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27026,16 +27026,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>151.5231788159621</v>
+        <v>151.523178815962</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776584</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27381,16 +27381,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E2" t="n">
         <v>140.9160811946027</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>199.8391668911481</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27423,13 +27423,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -27441,10 +27441,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>191.5737876464859</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27460,19 +27460,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27508,16 +27508,16 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>141.4577155037802</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>189.2779957534988</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27526,7 +27526,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27557,13 +27557,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>47.2544399028796</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,7 +27578,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27624,19 +27624,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
-        <v>303.8671480099096</v>
+        <v>206.5399494528818</v>
       </c>
       <c r="G5" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27660,13 +27660,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -27700,19 +27700,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>75.72709062278427</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27742,22 +27742,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>89.46990062502212</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27791,7 +27791,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>162.2271725074396</v>
+        <v>140.1931807347553</v>
       </c>
       <c r="I7" t="n">
         <v>155.4504749272583</v>
@@ -27800,7 +27800,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27815,10 +27815,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>184.0288285387892</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E8" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>366.3997666085763</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -27931,13 +27931,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -27946,10 +27946,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -27979,16 +27979,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>45.58027493642681</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>18.13488931206916</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -27997,7 +27997,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28019,7 +28019,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>15.96843579630763</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28064,7 +28064,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>97.48006257801995</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -31755,10 +31755,10 @@
         <v>2.385833569198244</v>
       </c>
       <c r="H11" t="n">
-        <v>24.43391804055152</v>
+        <v>24.43391804055151</v>
       </c>
       <c r="I11" t="n">
-        <v>91.97984867651539</v>
+        <v>91.97984867651536</v>
       </c>
       <c r="J11" t="n">
         <v>202.4946418937396</v>
@@ -31767,16 +31767,16 @@
         <v>303.4869768779013</v>
       </c>
       <c r="L11" t="n">
-        <v>376.5024309712522</v>
+        <v>376.5024309712521</v>
       </c>
       <c r="M11" t="n">
         <v>418.9314987074814</v>
       </c>
       <c r="N11" t="n">
-        <v>425.710248335966</v>
+        <v>425.7102483359659</v>
       </c>
       <c r="O11" t="n">
-        <v>401.9861157822509</v>
+        <v>401.9861157822508</v>
       </c>
       <c r="P11" t="n">
         <v>343.0858495426692</v>
@@ -31794,7 +31794,7 @@
         <v>10.44398644916532</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1908666855358595</v>
+        <v>0.1908666855358594</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,7 +31837,7 @@
         <v>12.32862615985298</v>
       </c>
       <c r="I12" t="n">
-        <v>43.9508244118283</v>
+        <v>43.95082441182829</v>
       </c>
       <c r="J12" t="n">
         <v>120.604421484738</v>
@@ -31849,31 +31849,31 @@
         <v>277.1701353512815</v>
       </c>
       <c r="M12" t="n">
-        <v>323.4444746842446</v>
+        <v>323.4444746842445</v>
       </c>
       <c r="N12" t="n">
-        <v>332.0050874900645</v>
+        <v>332.0050874900644</v>
       </c>
       <c r="O12" t="n">
         <v>303.7197925947069</v>
       </c>
       <c r="P12" t="n">
-        <v>243.7619099671568</v>
+        <v>243.7619099671567</v>
       </c>
       <c r="Q12" t="n">
         <v>162.9483813607453</v>
       </c>
       <c r="R12" t="n">
-        <v>79.25705355080784</v>
+        <v>79.25705355080783</v>
       </c>
       <c r="S12" t="n">
-        <v>23.71104985784621</v>
+        <v>23.7110498578462</v>
       </c>
       <c r="T12" t="n">
-        <v>5.145325813308304</v>
+        <v>5.145325813308303</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0839824670289713</v>
+        <v>0.08398246702897129</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,46 +31913,46 @@
         <v>1.070202803888311</v>
       </c>
       <c r="H13" t="n">
-        <v>9.515075838206993</v>
+        <v>9.515075838206991</v>
       </c>
       <c r="I13" t="n">
-        <v>32.18391704784123</v>
+        <v>32.18391704784122</v>
       </c>
       <c r="J13" t="n">
-        <v>75.66333823490361</v>
+        <v>75.66333823490359</v>
       </c>
       <c r="K13" t="n">
         <v>124.3381075790238</v>
       </c>
       <c r="L13" t="n">
-        <v>159.109969588995</v>
+        <v>159.1099695889949</v>
       </c>
       <c r="M13" t="n">
-        <v>167.7591540676923</v>
+        <v>167.7591540676922</v>
       </c>
       <c r="N13" t="n">
         <v>163.7702163441087</v>
       </c>
       <c r="O13" t="n">
-        <v>151.2683017714134</v>
+        <v>151.2683017714133</v>
       </c>
       <c r="P13" t="n">
         <v>129.4361645720917</v>
       </c>
       <c r="Q13" t="n">
-        <v>89.6148911510476</v>
+        <v>89.61489115104759</v>
       </c>
       <c r="R13" t="n">
-        <v>48.12020970937806</v>
+        <v>48.12020970937805</v>
       </c>
       <c r="S13" t="n">
         <v>18.65071613685356</v>
       </c>
       <c r="T13" t="n">
-        <v>4.572684707522783</v>
+        <v>4.572684707522782</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05837469839390796</v>
+        <v>0.05837469839390794</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.385833569198245</v>
+        <v>2.385833569198244</v>
       </c>
       <c r="H17" t="n">
-        <v>24.43391804055153</v>
+        <v>24.43391804055151</v>
       </c>
       <c r="I17" t="n">
-        <v>91.97984867651542</v>
+        <v>91.97984867651536</v>
       </c>
       <c r="J17" t="n">
-        <v>202.4946418937397</v>
+        <v>202.4946418937396</v>
       </c>
       <c r="K17" t="n">
-        <v>303.4869768779014</v>
+        <v>303.4869768779013</v>
       </c>
       <c r="L17" t="n">
-        <v>376.5024309712523</v>
+        <v>376.5024309712521</v>
       </c>
       <c r="M17" t="n">
-        <v>418.9314987074816</v>
+        <v>418.9314987074814</v>
       </c>
       <c r="N17" t="n">
-        <v>425.7102483359661</v>
+        <v>425.7102483359659</v>
       </c>
       <c r="O17" t="n">
-        <v>401.9861157822511</v>
+        <v>401.9861157822508</v>
       </c>
       <c r="P17" t="n">
-        <v>343.0858495426693</v>
+        <v>343.0858495426692</v>
       </c>
       <c r="Q17" t="n">
-        <v>257.6431848457571</v>
+        <v>257.643184845757</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411494</v>
+        <v>149.8691179411493</v>
       </c>
       <c r="S17" t="n">
-        <v>54.36718245810506</v>
+        <v>54.36718245810503</v>
       </c>
       <c r="T17" t="n">
         <v>10.44398644916532</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1908666855358595</v>
+        <v>0.1908666855358594</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.276533498840364</v>
+        <v>1.276533498840363</v>
       </c>
       <c r="H18" t="n">
-        <v>12.32862615985299</v>
+        <v>12.32862615985298</v>
       </c>
       <c r="I18" t="n">
-        <v>43.95082441182831</v>
+        <v>43.95082441182829</v>
       </c>
       <c r="J18" t="n">
-        <v>120.6044214847381</v>
+        <v>120.604421484738</v>
       </c>
       <c r="K18" t="n">
-        <v>206.1321659070424</v>
+        <v>206.1321659070423</v>
       </c>
       <c r="L18" t="n">
-        <v>277.1701353512816</v>
+        <v>277.1701353512815</v>
       </c>
       <c r="M18" t="n">
-        <v>323.4444746842447</v>
+        <v>323.4444746842445</v>
       </c>
       <c r="N18" t="n">
-        <v>332.0050874900646</v>
+        <v>332.0050874900644</v>
       </c>
       <c r="O18" t="n">
-        <v>303.719792594707</v>
+        <v>303.7197925947069</v>
       </c>
       <c r="P18" t="n">
-        <v>243.7619099671568</v>
+        <v>243.7619099671567</v>
       </c>
       <c r="Q18" t="n">
-        <v>162.9483813607454</v>
+        <v>162.9483813607453</v>
       </c>
       <c r="R18" t="n">
-        <v>79.25705355080788</v>
+        <v>79.25705355080783</v>
       </c>
       <c r="S18" t="n">
-        <v>23.71104985784621</v>
+        <v>23.7110498578462</v>
       </c>
       <c r="T18" t="n">
-        <v>5.145325813308307</v>
+        <v>5.145325813308303</v>
       </c>
       <c r="U18" t="n">
-        <v>0.08398246702897133</v>
+        <v>0.08398246702897129</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.070202803888312</v>
+        <v>1.070202803888311</v>
       </c>
       <c r="H19" t="n">
-        <v>9.515075838206997</v>
+        <v>9.515075838206991</v>
       </c>
       <c r="I19" t="n">
-        <v>32.18391704784123</v>
+        <v>32.18391704784122</v>
       </c>
       <c r="J19" t="n">
-        <v>75.66333823490363</v>
+        <v>75.66333823490359</v>
       </c>
       <c r="K19" t="n">
         <v>124.3381075790238</v>
       </c>
       <c r="L19" t="n">
-        <v>159.109969588995</v>
+        <v>159.1099695889949</v>
       </c>
       <c r="M19" t="n">
-        <v>167.7591540676923</v>
+        <v>167.7591540676922</v>
       </c>
       <c r="N19" t="n">
         <v>163.7702163441087</v>
       </c>
       <c r="O19" t="n">
-        <v>151.2683017714134</v>
+        <v>151.2683017714133</v>
       </c>
       <c r="P19" t="n">
         <v>129.4361645720917</v>
       </c>
       <c r="Q19" t="n">
-        <v>89.61489115104763</v>
+        <v>89.61489115104759</v>
       </c>
       <c r="R19" t="n">
-        <v>48.12020970937807</v>
+        <v>48.12020970937805</v>
       </c>
       <c r="S19" t="n">
-        <v>18.65071613685357</v>
+        <v>18.65071613685356</v>
       </c>
       <c r="T19" t="n">
-        <v>4.572684707522785</v>
+        <v>4.572684707522782</v>
       </c>
       <c r="U19" t="n">
-        <v>0.05837469839390798</v>
+        <v>0.05837469839390794</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.385833569198245</v>
+        <v>2.385833569198244</v>
       </c>
       <c r="H20" t="n">
-        <v>24.43391804055153</v>
+        <v>24.43391804055152</v>
       </c>
       <c r="I20" t="n">
-        <v>91.97984867651542</v>
+        <v>91.97984867651539</v>
       </c>
       <c r="J20" t="n">
-        <v>202.4946418937397</v>
+        <v>202.4946418937396</v>
       </c>
       <c r="K20" t="n">
-        <v>303.4869768779014</v>
+        <v>303.4869768779013</v>
       </c>
       <c r="L20" t="n">
-        <v>376.5024309712523</v>
+        <v>376.5024309712522</v>
       </c>
       <c r="M20" t="n">
-        <v>418.9314987074816</v>
+        <v>418.9314987074814</v>
       </c>
       <c r="N20" t="n">
-        <v>425.7102483359661</v>
+        <v>425.710248335966</v>
       </c>
       <c r="O20" t="n">
-        <v>401.9861157822511</v>
+        <v>401.9861157822509</v>
       </c>
       <c r="P20" t="n">
-        <v>343.0858495426693</v>
+        <v>343.0858495426692</v>
       </c>
       <c r="Q20" t="n">
-        <v>257.6431848457571</v>
+        <v>257.643184845757</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411494</v>
+        <v>149.8691179411493</v>
       </c>
       <c r="S20" t="n">
-        <v>54.36718245810506</v>
+        <v>54.36718245810503</v>
       </c>
       <c r="T20" t="n">
         <v>10.44398644916532</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.276533498840364</v>
+        <v>1.276533498840363</v>
       </c>
       <c r="H21" t="n">
-        <v>12.32862615985299</v>
+        <v>12.32862615985298</v>
       </c>
       <c r="I21" t="n">
-        <v>43.95082441182831</v>
+        <v>43.9508244118283</v>
       </c>
       <c r="J21" t="n">
-        <v>120.6044214847381</v>
+        <v>120.604421484738</v>
       </c>
       <c r="K21" t="n">
-        <v>206.1321659070424</v>
+        <v>206.1321659070423</v>
       </c>
       <c r="L21" t="n">
-        <v>277.1701353512816</v>
+        <v>277.1701353512815</v>
       </c>
       <c r="M21" t="n">
-        <v>323.4444746842447</v>
+        <v>323.4444746842446</v>
       </c>
       <c r="N21" t="n">
-        <v>332.0050874900646</v>
+        <v>332.0050874900645</v>
       </c>
       <c r="O21" t="n">
-        <v>303.719792594707</v>
+        <v>303.7197925947069</v>
       </c>
       <c r="P21" t="n">
         <v>243.7619099671568</v>
       </c>
       <c r="Q21" t="n">
-        <v>162.9483813607454</v>
+        <v>162.9483813607453</v>
       </c>
       <c r="R21" t="n">
-        <v>79.25705355080788</v>
+        <v>79.25705355080784</v>
       </c>
       <c r="S21" t="n">
         <v>23.71104985784621</v>
       </c>
       <c r="T21" t="n">
-        <v>5.145325813308307</v>
+        <v>5.145325813308304</v>
       </c>
       <c r="U21" t="n">
-        <v>0.08398246702897133</v>
+        <v>0.0839824670289713</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.070202803888312</v>
+        <v>1.070202803888311</v>
       </c>
       <c r="H22" t="n">
-        <v>9.515075838206997</v>
+        <v>9.515075838206993</v>
       </c>
       <c r="I22" t="n">
         <v>32.18391704784123</v>
       </c>
       <c r="J22" t="n">
-        <v>75.66333823490363</v>
+        <v>75.66333823490361</v>
       </c>
       <c r="K22" t="n">
         <v>124.3381075790238</v>
@@ -32651,19 +32651,19 @@
         <v>129.4361645720917</v>
       </c>
       <c r="Q22" t="n">
-        <v>89.61489115104763</v>
+        <v>89.6148911510476</v>
       </c>
       <c r="R22" t="n">
-        <v>48.12020970937807</v>
+        <v>48.12020970937806</v>
       </c>
       <c r="S22" t="n">
-        <v>18.65071613685357</v>
+        <v>18.65071613685356</v>
       </c>
       <c r="T22" t="n">
-        <v>4.572684707522785</v>
+        <v>4.572684707522783</v>
       </c>
       <c r="U22" t="n">
-        <v>0.05837469839390798</v>
+        <v>0.05837469839390796</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,13 +32700,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.882907887836292</v>
+        <v>2.882907887836291</v>
       </c>
       <c r="H23" t="n">
         <v>29.52458040630343</v>
       </c>
       <c r="I23" t="n">
-        <v>111.1433063458088</v>
+        <v>111.1433063458087</v>
       </c>
       <c r="J23" t="n">
         <v>244.6832033452457</v>
@@ -32715,19 +32715,19 @@
         <v>366.716694237356</v>
       </c>
       <c r="L23" t="n">
-        <v>454.944486509726</v>
+        <v>454.9444865097259</v>
       </c>
       <c r="M23" t="n">
-        <v>506.2133996600347</v>
+        <v>506.2133996600346</v>
       </c>
       <c r="N23" t="n">
-        <v>514.4044616963496</v>
+        <v>514.4044616963495</v>
       </c>
       <c r="O23" t="n">
-        <v>485.7375463866774</v>
+        <v>485.7375463866773</v>
       </c>
       <c r="P23" t="n">
-        <v>414.5657579057189</v>
+        <v>414.5657579057188</v>
       </c>
       <c r="Q23" t="n">
         <v>311.3216191725816</v>
@@ -32736,7 +32736,7 @@
         <v>181.0934626092966</v>
       </c>
       <c r="S23" t="n">
-        <v>65.69426349406957</v>
+        <v>65.69426349406956</v>
       </c>
       <c r="T23" t="n">
         <v>12.61992927900337</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.542491706213542</v>
+        <v>1.542491706213541</v>
       </c>
       <c r="H24" t="n">
-        <v>14.89722253106237</v>
+        <v>14.89722253106236</v>
       </c>
       <c r="I24" t="n">
         <v>53.10771883235221</v>
@@ -32794,7 +32794,7 @@
         <v>249.0785839809823</v>
       </c>
       <c r="L24" t="n">
-        <v>334.9168943688658</v>
+        <v>334.9168943688657</v>
       </c>
       <c r="M24" t="n">
         <v>390.8322187191065</v>
@@ -32812,13 +32812,13 @@
         <v>196.8977132352584</v>
       </c>
       <c r="R24" t="n">
-        <v>95.76979207525835</v>
+        <v>95.76979207525834</v>
       </c>
       <c r="S24" t="n">
         <v>28.65110691146642</v>
       </c>
       <c r="T24" t="n">
-        <v>6.21732402636072</v>
+        <v>6.217324026360719</v>
       </c>
       <c r="U24" t="n">
         <v>0.1014797175140488</v>
@@ -32858,7 +32858,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.293173230834764</v>
+        <v>1.293173230834763</v>
       </c>
       <c r="H25" t="n">
         <v>11.49748563414909</v>
@@ -32867,13 +32867,13 @@
         <v>38.88924588728545</v>
       </c>
       <c r="J25" t="n">
-        <v>91.4273474200178</v>
+        <v>91.42734742001778</v>
       </c>
       <c r="K25" t="n">
         <v>150.2432171824389</v>
       </c>
       <c r="L25" t="n">
-        <v>192.2595910642885</v>
+        <v>192.2595910642884</v>
       </c>
       <c r="M25" t="n">
         <v>202.7107819934893</v>
@@ -32882,7 +32882,7 @@
         <v>197.8907726785599</v>
       </c>
       <c r="O25" t="n">
-        <v>182.7841581183538</v>
+        <v>182.7841581183537</v>
       </c>
       <c r="P25" t="n">
         <v>156.4034242093244</v>
@@ -32891,16 +32891,16 @@
         <v>108.285623901991</v>
       </c>
       <c r="R25" t="n">
-        <v>58.14577090644309</v>
+        <v>58.14577090644308</v>
       </c>
       <c r="S25" t="n">
         <v>22.53648257736583</v>
       </c>
       <c r="T25" t="n">
-        <v>5.525376531748535</v>
+        <v>5.525376531748534</v>
       </c>
       <c r="U25" t="n">
-        <v>0.07053672168189629</v>
+        <v>0.07053672168189627</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,13 +32937,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.882907887836292</v>
+        <v>2.882907887836291</v>
       </c>
       <c r="H26" t="n">
         <v>29.52458040630343</v>
       </c>
       <c r="I26" t="n">
-        <v>111.1433063458088</v>
+        <v>111.1433063458087</v>
       </c>
       <c r="J26" t="n">
         <v>244.6832033452457</v>
@@ -32952,19 +32952,19 @@
         <v>366.716694237356</v>
       </c>
       <c r="L26" t="n">
-        <v>454.944486509726</v>
+        <v>454.9444865097259</v>
       </c>
       <c r="M26" t="n">
-        <v>506.2133996600347</v>
+        <v>506.2133996600346</v>
       </c>
       <c r="N26" t="n">
-        <v>514.4044616963496</v>
+        <v>514.4044616963495</v>
       </c>
       <c r="O26" t="n">
-        <v>485.7375463866774</v>
+        <v>485.7375463866773</v>
       </c>
       <c r="P26" t="n">
-        <v>414.5657579057189</v>
+        <v>414.5657579057188</v>
       </c>
       <c r="Q26" t="n">
         <v>311.3216191725816</v>
@@ -32973,7 +32973,7 @@
         <v>181.0934626092966</v>
       </c>
       <c r="S26" t="n">
-        <v>65.69426349406957</v>
+        <v>65.69426349406956</v>
       </c>
       <c r="T26" t="n">
         <v>12.61992927900337</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.542491706213542</v>
+        <v>1.542491706213541</v>
       </c>
       <c r="H27" t="n">
-        <v>14.89722253106237</v>
+        <v>14.89722253106236</v>
       </c>
       <c r="I27" t="n">
         <v>53.10771883235221</v>
@@ -33031,7 +33031,7 @@
         <v>249.0785839809823</v>
       </c>
       <c r="L27" t="n">
-        <v>334.9168943688658</v>
+        <v>334.9168943688657</v>
       </c>
       <c r="M27" t="n">
         <v>390.8322187191065</v>
@@ -33049,13 +33049,13 @@
         <v>196.8977132352584</v>
       </c>
       <c r="R27" t="n">
-        <v>95.76979207525835</v>
+        <v>95.76979207525834</v>
       </c>
       <c r="S27" t="n">
         <v>28.65110691146642</v>
       </c>
       <c r="T27" t="n">
-        <v>6.21732402636072</v>
+        <v>6.217324026360719</v>
       </c>
       <c r="U27" t="n">
         <v>0.1014797175140488</v>
@@ -33095,7 +33095,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.293173230834764</v>
+        <v>1.293173230834763</v>
       </c>
       <c r="H28" t="n">
         <v>11.49748563414909</v>
@@ -33104,13 +33104,13 @@
         <v>38.88924588728545</v>
       </c>
       <c r="J28" t="n">
-        <v>91.4273474200178</v>
+        <v>91.42734742001778</v>
       </c>
       <c r="K28" t="n">
         <v>150.2432171824389</v>
       </c>
       <c r="L28" t="n">
-        <v>192.2595910642885</v>
+        <v>192.2595910642884</v>
       </c>
       <c r="M28" t="n">
         <v>202.7107819934893</v>
@@ -33119,7 +33119,7 @@
         <v>197.8907726785599</v>
       </c>
       <c r="O28" t="n">
-        <v>182.7841581183538</v>
+        <v>182.7841581183537</v>
       </c>
       <c r="P28" t="n">
         <v>156.4034242093244</v>
@@ -33128,16 +33128,16 @@
         <v>108.285623901991</v>
       </c>
       <c r="R28" t="n">
-        <v>58.14577090644309</v>
+        <v>58.14577090644308</v>
       </c>
       <c r="S28" t="n">
         <v>22.53648257736583</v>
       </c>
       <c r="T28" t="n">
-        <v>5.525376531748535</v>
+        <v>5.525376531748534</v>
       </c>
       <c r="U28" t="n">
-        <v>0.07053672168189629</v>
+        <v>0.07053672168189627</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,13 +33174,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2.882907887836292</v>
+        <v>2.882907887836291</v>
       </c>
       <c r="H29" t="n">
         <v>29.52458040630343</v>
       </c>
       <c r="I29" t="n">
-        <v>111.1433063458088</v>
+        <v>111.1433063458087</v>
       </c>
       <c r="J29" t="n">
         <v>244.6832033452457</v>
@@ -33189,19 +33189,19 @@
         <v>366.716694237356</v>
       </c>
       <c r="L29" t="n">
-        <v>454.944486509726</v>
+        <v>454.9444865097259</v>
       </c>
       <c r="M29" t="n">
-        <v>506.2133996600347</v>
+        <v>506.2133996600346</v>
       </c>
       <c r="N29" t="n">
-        <v>514.4044616963496</v>
+        <v>514.4044616963495</v>
       </c>
       <c r="O29" t="n">
-        <v>485.7375463866774</v>
+        <v>485.7375463866773</v>
       </c>
       <c r="P29" t="n">
-        <v>414.5657579057189</v>
+        <v>414.5657579057188</v>
       </c>
       <c r="Q29" t="n">
         <v>311.3216191725816</v>
@@ -33210,7 +33210,7 @@
         <v>181.0934626092966</v>
       </c>
       <c r="S29" t="n">
-        <v>65.69426349406957</v>
+        <v>65.69426349406956</v>
       </c>
       <c r="T29" t="n">
         <v>12.61992927900337</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.542491706213542</v>
+        <v>1.542491706213541</v>
       </c>
       <c r="H30" t="n">
-        <v>14.89722253106237</v>
+        <v>14.89722253106236</v>
       </c>
       <c r="I30" t="n">
         <v>53.10771883235221</v>
@@ -33268,7 +33268,7 @@
         <v>249.0785839809823</v>
       </c>
       <c r="L30" t="n">
-        <v>334.9168943688658</v>
+        <v>334.9168943688657</v>
       </c>
       <c r="M30" t="n">
         <v>390.8322187191065</v>
@@ -33286,13 +33286,13 @@
         <v>196.8977132352584</v>
       </c>
       <c r="R30" t="n">
-        <v>95.76979207525835</v>
+        <v>95.76979207525834</v>
       </c>
       <c r="S30" t="n">
         <v>28.65110691146642</v>
       </c>
       <c r="T30" t="n">
-        <v>6.21732402636072</v>
+        <v>6.217324026360719</v>
       </c>
       <c r="U30" t="n">
         <v>0.1014797175140488</v>
@@ -33332,7 +33332,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.293173230834764</v>
+        <v>1.293173230834763</v>
       </c>
       <c r="H31" t="n">
         <v>11.49748563414909</v>
@@ -33341,13 +33341,13 @@
         <v>38.88924588728545</v>
       </c>
       <c r="J31" t="n">
-        <v>91.4273474200178</v>
+        <v>91.42734742001778</v>
       </c>
       <c r="K31" t="n">
         <v>150.2432171824389</v>
       </c>
       <c r="L31" t="n">
-        <v>192.2595910642885</v>
+        <v>192.2595910642884</v>
       </c>
       <c r="M31" t="n">
         <v>202.7107819934893</v>
@@ -33356,7 +33356,7 @@
         <v>197.8907726785599</v>
       </c>
       <c r="O31" t="n">
-        <v>182.7841581183538</v>
+        <v>182.7841581183537</v>
       </c>
       <c r="P31" t="n">
         <v>156.4034242093244</v>
@@ -33365,16 +33365,16 @@
         <v>108.285623901991</v>
       </c>
       <c r="R31" t="n">
-        <v>58.14577090644309</v>
+        <v>58.14577090644308</v>
       </c>
       <c r="S31" t="n">
         <v>22.53648257736583</v>
       </c>
       <c r="T31" t="n">
-        <v>5.525376531748535</v>
+        <v>5.525376531748534</v>
       </c>
       <c r="U31" t="n">
-        <v>0.07053672168189629</v>
+        <v>0.07053672168189627</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,13 +33411,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>2.882907887836292</v>
+        <v>2.882907887836291</v>
       </c>
       <c r="H32" t="n">
         <v>29.52458040630343</v>
       </c>
       <c r="I32" t="n">
-        <v>111.1433063458088</v>
+        <v>111.1433063458087</v>
       </c>
       <c r="J32" t="n">
         <v>244.6832033452457</v>
@@ -33426,19 +33426,19 @@
         <v>366.716694237356</v>
       </c>
       <c r="L32" t="n">
-        <v>454.944486509726</v>
+        <v>454.9444865097259</v>
       </c>
       <c r="M32" t="n">
-        <v>506.2133996600347</v>
+        <v>506.2133996600346</v>
       </c>
       <c r="N32" t="n">
-        <v>514.4044616963496</v>
+        <v>514.4044616963495</v>
       </c>
       <c r="O32" t="n">
-        <v>485.7375463866774</v>
+        <v>485.7375463866773</v>
       </c>
       <c r="P32" t="n">
-        <v>414.5657579057189</v>
+        <v>414.5657579057188</v>
       </c>
       <c r="Q32" t="n">
         <v>311.3216191725816</v>
@@ -33447,7 +33447,7 @@
         <v>181.0934626092966</v>
       </c>
       <c r="S32" t="n">
-        <v>65.69426349406957</v>
+        <v>65.69426349406956</v>
       </c>
       <c r="T32" t="n">
         <v>12.61992927900337</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.542491706213542</v>
+        <v>1.542491706213541</v>
       </c>
       <c r="H33" t="n">
-        <v>14.89722253106237</v>
+        <v>14.89722253106236</v>
       </c>
       <c r="I33" t="n">
         <v>53.10771883235221</v>
@@ -33505,7 +33505,7 @@
         <v>249.0785839809823</v>
       </c>
       <c r="L33" t="n">
-        <v>334.9168943688658</v>
+        <v>334.9168943688657</v>
       </c>
       <c r="M33" t="n">
         <v>390.8322187191065</v>
@@ -33523,13 +33523,13 @@
         <v>196.8977132352584</v>
       </c>
       <c r="R33" t="n">
-        <v>95.76979207525835</v>
+        <v>95.76979207525834</v>
       </c>
       <c r="S33" t="n">
         <v>28.65110691146642</v>
       </c>
       <c r="T33" t="n">
-        <v>6.21732402636072</v>
+        <v>6.217324026360719</v>
       </c>
       <c r="U33" t="n">
         <v>0.1014797175140488</v>
@@ -33569,7 +33569,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.293173230834764</v>
+        <v>1.293173230834763</v>
       </c>
       <c r="H34" t="n">
         <v>11.49748563414909</v>
@@ -33578,13 +33578,13 @@
         <v>38.88924588728545</v>
       </c>
       <c r="J34" t="n">
-        <v>91.4273474200178</v>
+        <v>91.42734742001778</v>
       </c>
       <c r="K34" t="n">
         <v>150.2432171824389</v>
       </c>
       <c r="L34" t="n">
-        <v>192.2595910642885</v>
+        <v>192.2595910642884</v>
       </c>
       <c r="M34" t="n">
         <v>202.7107819934893</v>
@@ -33593,7 +33593,7 @@
         <v>197.8907726785599</v>
       </c>
       <c r="O34" t="n">
-        <v>182.7841581183538</v>
+        <v>182.7841581183537</v>
       </c>
       <c r="P34" t="n">
         <v>156.4034242093244</v>
@@ -33602,16 +33602,16 @@
         <v>108.285623901991</v>
       </c>
       <c r="R34" t="n">
-        <v>58.14577090644309</v>
+        <v>58.14577090644308</v>
       </c>
       <c r="S34" t="n">
         <v>22.53648257736583</v>
       </c>
       <c r="T34" t="n">
-        <v>5.525376531748535</v>
+        <v>5.525376531748534</v>
       </c>
       <c r="U34" t="n">
-        <v>0.07053672168189629</v>
+        <v>0.07053672168189627</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,13 +33648,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2.882907887836292</v>
+        <v>2.882907887836291</v>
       </c>
       <c r="H35" t="n">
         <v>29.52458040630343</v>
       </c>
       <c r="I35" t="n">
-        <v>111.1433063458088</v>
+        <v>111.1433063458087</v>
       </c>
       <c r="J35" t="n">
         <v>244.6832033452457</v>
@@ -33663,19 +33663,19 @@
         <v>366.716694237356</v>
       </c>
       <c r="L35" t="n">
-        <v>454.944486509726</v>
+        <v>454.9444865097259</v>
       </c>
       <c r="M35" t="n">
-        <v>506.2133996600347</v>
+        <v>506.2133996600346</v>
       </c>
       <c r="N35" t="n">
-        <v>514.4044616963496</v>
+        <v>514.4044616963495</v>
       </c>
       <c r="O35" t="n">
-        <v>485.7375463866774</v>
+        <v>485.7375463866773</v>
       </c>
       <c r="P35" t="n">
-        <v>414.5657579057189</v>
+        <v>414.5657579057188</v>
       </c>
       <c r="Q35" t="n">
         <v>311.3216191725816</v>
@@ -33684,7 +33684,7 @@
         <v>181.0934626092966</v>
       </c>
       <c r="S35" t="n">
-        <v>65.69426349406957</v>
+        <v>65.69426349406956</v>
       </c>
       <c r="T35" t="n">
         <v>12.61992927900337</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.542491706213542</v>
+        <v>1.542491706213541</v>
       </c>
       <c r="H36" t="n">
-        <v>14.89722253106237</v>
+        <v>14.89722253106236</v>
       </c>
       <c r="I36" t="n">
         <v>53.10771883235221</v>
@@ -33742,7 +33742,7 @@
         <v>249.0785839809823</v>
       </c>
       <c r="L36" t="n">
-        <v>334.9168943688658</v>
+        <v>334.9168943688657</v>
       </c>
       <c r="M36" t="n">
         <v>390.8322187191065</v>
@@ -33760,13 +33760,13 @@
         <v>196.8977132352584</v>
       </c>
       <c r="R36" t="n">
-        <v>95.76979207525835</v>
+        <v>95.76979207525834</v>
       </c>
       <c r="S36" t="n">
         <v>28.65110691146642</v>
       </c>
       <c r="T36" t="n">
-        <v>6.21732402636072</v>
+        <v>6.217324026360719</v>
       </c>
       <c r="U36" t="n">
         <v>0.1014797175140488</v>
@@ -33806,7 +33806,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.293173230834764</v>
+        <v>1.293173230834763</v>
       </c>
       <c r="H37" t="n">
         <v>11.49748563414909</v>
@@ -33815,13 +33815,13 @@
         <v>38.88924588728545</v>
       </c>
       <c r="J37" t="n">
-        <v>91.4273474200178</v>
+        <v>91.42734742001778</v>
       </c>
       <c r="K37" t="n">
         <v>150.2432171824389</v>
       </c>
       <c r="L37" t="n">
-        <v>192.2595910642885</v>
+        <v>192.2595910642884</v>
       </c>
       <c r="M37" t="n">
         <v>202.7107819934893</v>
@@ -33830,7 +33830,7 @@
         <v>197.8907726785599</v>
       </c>
       <c r="O37" t="n">
-        <v>182.7841581183538</v>
+        <v>182.7841581183537</v>
       </c>
       <c r="P37" t="n">
         <v>156.4034242093244</v>
@@ -33839,16 +33839,16 @@
         <v>108.285623901991</v>
       </c>
       <c r="R37" t="n">
-        <v>58.14577090644309</v>
+        <v>58.14577090644308</v>
       </c>
       <c r="S37" t="n">
         <v>22.53648257736583</v>
       </c>
       <c r="T37" t="n">
-        <v>5.525376531748535</v>
+        <v>5.525376531748534</v>
       </c>
       <c r="U37" t="n">
-        <v>0.07053672168189629</v>
+        <v>0.07053672168189627</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,7 +33888,7 @@
         <v>2.882907887836292</v>
       </c>
       <c r="H38" t="n">
-        <v>29.52458040630343</v>
+        <v>29.52458040630344</v>
       </c>
       <c r="I38" t="n">
         <v>111.1433063458088</v>
@@ -33897,34 +33897,34 @@
         <v>244.6832033452457</v>
       </c>
       <c r="K38" t="n">
-        <v>366.716694237356</v>
+        <v>366.7166942373561</v>
       </c>
       <c r="L38" t="n">
-        <v>454.944486509726</v>
+        <v>454.9444865097261</v>
       </c>
       <c r="M38" t="n">
         <v>506.2133996600347</v>
       </c>
       <c r="N38" t="n">
-        <v>514.4044616963496</v>
+        <v>514.4044616963497</v>
       </c>
       <c r="O38" t="n">
-        <v>485.7375463866774</v>
+        <v>485.7375463866775</v>
       </c>
       <c r="P38" t="n">
-        <v>414.5657579057189</v>
+        <v>414.565757905719</v>
       </c>
       <c r="Q38" t="n">
         <v>311.3216191725816</v>
       </c>
       <c r="R38" t="n">
-        <v>181.0934626092966</v>
+        <v>181.0934626092967</v>
       </c>
       <c r="S38" t="n">
         <v>65.69426349406957</v>
       </c>
       <c r="T38" t="n">
-        <v>12.61992927900337</v>
+        <v>12.61992927900338</v>
       </c>
       <c r="U38" t="n">
         <v>0.2306326310269033</v>
@@ -33970,43 +33970,43 @@
         <v>14.89722253106237</v>
       </c>
       <c r="I39" t="n">
-        <v>53.10771883235221</v>
+        <v>53.10771883235222</v>
       </c>
       <c r="J39" t="n">
         <v>145.731639664675</v>
       </c>
       <c r="K39" t="n">
-        <v>249.0785839809823</v>
+        <v>249.0785839809824</v>
       </c>
       <c r="L39" t="n">
         <v>334.9168943688658</v>
       </c>
       <c r="M39" t="n">
-        <v>390.8322187191065</v>
+        <v>390.8322187191066</v>
       </c>
       <c r="N39" t="n">
-        <v>401.1763845910386</v>
+        <v>401.1763845910387</v>
       </c>
       <c r="O39" t="n">
-        <v>366.998015732307</v>
+        <v>366.9980157323071</v>
       </c>
       <c r="P39" t="n">
-        <v>294.5482627417771</v>
+        <v>294.5482627417772</v>
       </c>
       <c r="Q39" t="n">
-        <v>196.8977132352584</v>
+        <v>196.8977132352585</v>
       </c>
       <c r="R39" t="n">
-        <v>95.76979207525835</v>
+        <v>95.76979207525837</v>
       </c>
       <c r="S39" t="n">
-        <v>28.65110691146642</v>
+        <v>28.65110691146643</v>
       </c>
       <c r="T39" t="n">
-        <v>6.21732402636072</v>
+        <v>6.217324026360722</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1014797175140488</v>
+        <v>0.1014797175140489</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34049,10 +34049,10 @@
         <v>11.49748563414909</v>
       </c>
       <c r="I40" t="n">
-        <v>38.88924588728545</v>
+        <v>38.88924588728546</v>
       </c>
       <c r="J40" t="n">
-        <v>91.4273474200178</v>
+        <v>91.42734742001781</v>
       </c>
       <c r="K40" t="n">
         <v>150.2432171824389</v>
@@ -34061,22 +34061,22 @@
         <v>192.2595910642885</v>
       </c>
       <c r="M40" t="n">
-        <v>202.7107819934893</v>
+        <v>202.7107819934894</v>
       </c>
       <c r="N40" t="n">
-        <v>197.8907726785599</v>
+        <v>197.89077267856</v>
       </c>
       <c r="O40" t="n">
         <v>182.7841581183538</v>
       </c>
       <c r="P40" t="n">
-        <v>156.4034242093244</v>
+        <v>156.4034242093245</v>
       </c>
       <c r="Q40" t="n">
         <v>108.285623901991</v>
       </c>
       <c r="R40" t="n">
-        <v>58.14577090644309</v>
+        <v>58.1457709064431</v>
       </c>
       <c r="S40" t="n">
         <v>22.53648257736583</v>
@@ -34085,7 +34085,7 @@
         <v>5.525376531748535</v>
       </c>
       <c r="U40" t="n">
-        <v>0.07053672168189629</v>
+        <v>0.0705367216818963</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34783,7 +34783,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>34.55702612384782</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
@@ -34792,13 +34792,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35020,13 +35020,13 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35415,16 +35415,16 @@
         <v>407.5425384040855</v>
       </c>
       <c r="L11" t="n">
-        <v>558.3972305517154</v>
+        <v>558.3972305517153</v>
       </c>
       <c r="M11" t="n">
-        <v>638.0987989730412</v>
+        <v>638.0987989730411</v>
       </c>
       <c r="N11" t="n">
-        <v>633.6441091513592</v>
+        <v>633.6441091513591</v>
       </c>
       <c r="O11" t="n">
-        <v>552.6880856233096</v>
+        <v>552.6880856233095</v>
       </c>
       <c r="P11" t="n">
         <v>433.6515619588823</v>
@@ -35488,16 +35488,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>119.8578301584802</v>
+        <v>119.8578301584801</v>
       </c>
       <c r="K12" t="n">
-        <v>332.755963945262</v>
+        <v>68.29072693268333</v>
       </c>
       <c r="L12" t="n">
         <v>509.4561008748665</v>
       </c>
       <c r="M12" t="n">
-        <v>229.4160469348671</v>
+        <v>647.0155045122261</v>
       </c>
       <c r="N12" t="n">
         <v>200.6633754067311</v>
@@ -35509,7 +35509,7 @@
         <v>428.2502711927636</v>
       </c>
       <c r="Q12" t="n">
-        <v>233.0438950105729</v>
+        <v>79.90967444579195</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35576,19 +35576,19 @@
         <v>186.6999948493111</v>
       </c>
       <c r="M13" t="n">
-        <v>207.3430310295329</v>
+        <v>207.3430310295328</v>
       </c>
       <c r="N13" t="n">
         <v>207.9023887233373</v>
       </c>
       <c r="O13" t="n">
-        <v>175.8534296854531</v>
+        <v>175.853429685453</v>
       </c>
       <c r="P13" t="n">
         <v>126.7147238369852</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.452847899353216</v>
+        <v>3.452847899353202</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35731,22 +35731,22 @@
         <v>332.7559639452619</v>
       </c>
       <c r="L15" t="n">
-        <v>509.4561008748665</v>
+        <v>141.0543253297402</v>
       </c>
       <c r="M15" t="n">
-        <v>181.3104407622262</v>
+        <v>647.0155045122261</v>
       </c>
       <c r="N15" t="n">
-        <v>248.7689815793721</v>
+        <v>680.0057497502846</v>
       </c>
       <c r="O15" t="n">
         <v>554.9858674269919</v>
       </c>
       <c r="P15" t="n">
-        <v>428.2502711927636</v>
+        <v>109.7875025528265</v>
       </c>
       <c r="Q15" t="n">
-        <v>233.0438950105729</v>
+        <v>22.96660727472377</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.5453525391272</v>
+        <v>190.5453525391271</v>
       </c>
       <c r="K17" t="n">
-        <v>407.5425384040856</v>
+        <v>407.5425384040855</v>
       </c>
       <c r="L17" t="n">
-        <v>558.3972305517154</v>
+        <v>558.3972305517153</v>
       </c>
       <c r="M17" t="n">
-        <v>638.0987989730413</v>
+        <v>638.0987989730411</v>
       </c>
       <c r="N17" t="n">
-        <v>633.6441091513593</v>
+        <v>633.6441091513591</v>
       </c>
       <c r="O17" t="n">
-        <v>552.6880856233097</v>
+        <v>552.6880856233095</v>
       </c>
       <c r="P17" t="n">
-        <v>433.6515619588824</v>
+        <v>433.6515619588823</v>
       </c>
       <c r="Q17" t="n">
-        <v>247.6524856312123</v>
+        <v>247.6524856312122</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>119.8578301584802</v>
+        <v>119.8578301584801</v>
       </c>
       <c r="K18" t="n">
-        <v>332.755963945262</v>
+        <v>332.7559639452619</v>
       </c>
       <c r="L18" t="n">
-        <v>509.4561008748666</v>
+        <v>509.4561008748665</v>
       </c>
       <c r="M18" t="n">
-        <v>229.4160469348662</v>
+        <v>181.3104407622262</v>
       </c>
       <c r="N18" t="n">
-        <v>200.6633754067313</v>
+        <v>248.7689815793721</v>
       </c>
       <c r="O18" t="n">
-        <v>554.9858674269922</v>
+        <v>554.9858674269919</v>
       </c>
       <c r="P18" t="n">
-        <v>428.2502711927638</v>
+        <v>428.2502711927636</v>
       </c>
       <c r="Q18" t="n">
-        <v>233.043895010573</v>
+        <v>233.0438950105729</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,25 +36044,25 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>102.068615753141</v>
+        <v>102.0686157531409</v>
       </c>
       <c r="L19" t="n">
-        <v>186.6999948493112</v>
+        <v>186.6999948493111</v>
       </c>
       <c r="M19" t="n">
-        <v>207.3430310295329</v>
+        <v>207.3430310295328</v>
       </c>
       <c r="N19" t="n">
         <v>207.9023887233373</v>
       </c>
       <c r="O19" t="n">
-        <v>175.8534296854531</v>
+        <v>175.853429685453</v>
       </c>
       <c r="P19" t="n">
         <v>126.7147238369852</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.452847899353245</v>
+        <v>3.452847899353202</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.5453525391272</v>
+        <v>190.5453525391271</v>
       </c>
       <c r="K20" t="n">
-        <v>407.5425384040856</v>
+        <v>407.5425384040855</v>
       </c>
       <c r="L20" t="n">
         <v>558.3972305517154</v>
       </c>
       <c r="M20" t="n">
-        <v>638.0987989730413</v>
+        <v>638.0987989730412</v>
       </c>
       <c r="N20" t="n">
-        <v>633.6441091513593</v>
+        <v>633.6441091513592</v>
       </c>
       <c r="O20" t="n">
-        <v>552.6880856233097</v>
+        <v>552.6880856233096</v>
       </c>
       <c r="P20" t="n">
-        <v>433.6515619588824</v>
+        <v>433.6515619588823</v>
       </c>
       <c r="Q20" t="n">
-        <v>247.6524856312123</v>
+        <v>247.6524856312122</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>119.8578301584802</v>
       </c>
       <c r="K21" t="n">
-        <v>68.29072693268344</v>
+        <v>332.755963945262</v>
       </c>
       <c r="L21" t="n">
-        <v>509.4561008748666</v>
+        <v>509.4561008748665</v>
       </c>
       <c r="M21" t="n">
-        <v>647.0155045122262</v>
+        <v>181.3104407622263</v>
       </c>
       <c r="N21" t="n">
-        <v>680.0057497502848</v>
+        <v>248.7689815793721</v>
       </c>
       <c r="O21" t="n">
-        <v>554.9858674269922</v>
+        <v>554.9858674269919</v>
       </c>
       <c r="P21" t="n">
-        <v>109.7875025528266</v>
+        <v>428.2502711927636</v>
       </c>
       <c r="Q21" t="n">
-        <v>38.88789890065525</v>
+        <v>233.0438950105729</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,10 +36281,10 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>102.068615753141</v>
+        <v>102.0686157531409</v>
       </c>
       <c r="L22" t="n">
-        <v>186.6999948493112</v>
+        <v>186.6999948493111</v>
       </c>
       <c r="M22" t="n">
         <v>207.3430310295329</v>
@@ -36299,7 +36299,7 @@
         <v>126.7147238369852</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.452847899353245</v>
+        <v>3.452847899353216</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>232.7339139906332</v>
+        <v>232.7339139906331</v>
       </c>
       <c r="K23" t="n">
         <v>470.7722557635402</v>
       </c>
       <c r="L23" t="n">
-        <v>636.8392860901893</v>
+        <v>636.8392860901891</v>
       </c>
       <c r="M23" t="n">
-        <v>725.3806999255944</v>
+        <v>725.3806999255943</v>
       </c>
       <c r="N23" t="n">
-        <v>722.3383225117428</v>
+        <v>722.3383225117427</v>
       </c>
       <c r="O23" t="n">
-        <v>636.439516227736</v>
+        <v>636.4395162277359</v>
       </c>
       <c r="P23" t="n">
-        <v>505.131470321932</v>
+        <v>505.1314703219319</v>
       </c>
       <c r="Q23" t="n">
         <v>301.3309199580368</v>
       </c>
       <c r="R23" t="n">
-        <v>31.22434466814695</v>
+        <v>31.22434466814693</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>18.89401299800835</v>
+        <v>144.9850483384172</v>
       </c>
       <c r="K24" t="n">
-        <v>111.2371450066233</v>
+        <v>375.7023820192019</v>
       </c>
       <c r="L24" t="n">
-        <v>537.5914169368574</v>
+        <v>563.5425263016373</v>
       </c>
       <c r="M24" t="n">
-        <v>714.4032485470882</v>
+        <v>248.6981847970882</v>
       </c>
       <c r="N24" t="n">
-        <v>749.1770468512589</v>
+        <v>269.8346725077052</v>
       </c>
       <c r="O24" t="n">
-        <v>224.4017712878626</v>
+        <v>224.4017712878625</v>
       </c>
       <c r="P24" t="n">
-        <v>160.5738553274469</v>
+        <v>479.036623967384</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.91593914923692</v>
+        <v>266.993226885086</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36536,7 +36536,7 @@
         <v>153.6819834742179</v>
       </c>
       <c r="Q25" t="n">
-        <v>22.12358065029662</v>
+        <v>22.1235806502966</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>232.7339139906332</v>
+        <v>232.7339139906335</v>
       </c>
       <c r="K26" t="n">
         <v>470.7722557635402</v>
       </c>
       <c r="L26" t="n">
-        <v>636.8392860901893</v>
+        <v>636.8392860901891</v>
       </c>
       <c r="M26" t="n">
-        <v>725.3806999255944</v>
+        <v>725.3806999255943</v>
       </c>
       <c r="N26" t="n">
-        <v>722.3383225117428</v>
+        <v>722.3383225117427</v>
       </c>
       <c r="O26" t="n">
-        <v>636.439516227736</v>
+        <v>636.4395162277359</v>
       </c>
       <c r="P26" t="n">
-        <v>505.131470321932</v>
+        <v>505.1314703219319</v>
       </c>
       <c r="Q26" t="n">
         <v>301.3309199580368</v>
       </c>
       <c r="R26" t="n">
-        <v>31.22434466814695</v>
+        <v>31.22434466814693</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>18.89401299800835</v>
+        <v>144.9850483384172</v>
       </c>
       <c r="K27" t="n">
-        <v>111.2371450066233</v>
+        <v>375.7023820192019</v>
       </c>
       <c r="L27" t="n">
-        <v>196.3625145889916</v>
+        <v>567.2028598924508</v>
       </c>
       <c r="M27" t="n">
-        <v>714.4032485470882</v>
+        <v>248.6981847970882</v>
       </c>
       <c r="N27" t="n">
-        <v>749.1770468512589</v>
+        <v>269.8346725077052</v>
       </c>
       <c r="O27" t="n">
-        <v>224.4017712878626</v>
+        <v>224.4017712878625</v>
       </c>
       <c r="P27" t="n">
-        <v>479.0366239673841</v>
+        <v>475.3762903765706</v>
       </c>
       <c r="Q27" t="n">
-        <v>79.68207285716561</v>
+        <v>266.993226885086</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36773,7 +36773,7 @@
         <v>153.6819834742179</v>
       </c>
       <c r="Q28" t="n">
-        <v>22.12358065029662</v>
+        <v>22.1235806502966</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>232.7339139906332</v>
+        <v>232.7339139906331</v>
       </c>
       <c r="K29" t="n">
         <v>470.7722557635402</v>
       </c>
       <c r="L29" t="n">
-        <v>636.8392860901893</v>
+        <v>636.8392860901891</v>
       </c>
       <c r="M29" t="n">
-        <v>725.3806999255944</v>
+        <v>725.3806999255943</v>
       </c>
       <c r="N29" t="n">
-        <v>722.3383225117428</v>
+        <v>722.3383225117427</v>
       </c>
       <c r="O29" t="n">
-        <v>636.439516227736</v>
+        <v>636.4395162277359</v>
       </c>
       <c r="P29" t="n">
-        <v>505.131470321932</v>
+        <v>505.1314703219319</v>
       </c>
       <c r="Q29" t="n">
         <v>301.3309199580368</v>
       </c>
       <c r="R29" t="n">
-        <v>31.22434466814695</v>
+        <v>31.22434466814693</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.66014670593706</v>
+        <v>144.9850483384172</v>
       </c>
       <c r="K30" t="n">
-        <v>111.2371450066233</v>
+        <v>375.7023820192019</v>
       </c>
       <c r="L30" t="n">
-        <v>196.3625145889916</v>
+        <v>567.2028598924508</v>
       </c>
       <c r="M30" t="n">
-        <v>714.4032485470882</v>
+        <v>248.6981847970882</v>
       </c>
       <c r="N30" t="n">
-        <v>749.1770468512589</v>
+        <v>269.8346725077052</v>
       </c>
       <c r="O30" t="n">
-        <v>224.4017712878626</v>
+        <v>224.4017712878625</v>
       </c>
       <c r="P30" t="n">
-        <v>479.0366239673841</v>
+        <v>475.3762903765706</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.91593914923692</v>
+        <v>266.993226885086</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37010,7 +37010,7 @@
         <v>153.6819834742179</v>
       </c>
       <c r="Q31" t="n">
-        <v>22.12358065029662</v>
+        <v>22.1235806502966</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>232.7339139906332</v>
+        <v>232.7339139906331</v>
       </c>
       <c r="K32" t="n">
         <v>470.7722557635402</v>
       </c>
       <c r="L32" t="n">
-        <v>636.8392860901893</v>
+        <v>636.8392860901891</v>
       </c>
       <c r="M32" t="n">
-        <v>725.3806999255944</v>
+        <v>725.3806999255943</v>
       </c>
       <c r="N32" t="n">
-        <v>722.3383225117428</v>
+        <v>722.3383225117427</v>
       </c>
       <c r="O32" t="n">
-        <v>636.439516227736</v>
+        <v>636.4395162277359</v>
       </c>
       <c r="P32" t="n">
-        <v>505.131470321932</v>
+        <v>505.1314703219319</v>
       </c>
       <c r="Q32" t="n">
         <v>301.3309199580368</v>
       </c>
       <c r="R32" t="n">
-        <v>31.22434466814695</v>
+        <v>31.22434466814693</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>18.89401299800835</v>
+        <v>144.9850483384172</v>
       </c>
       <c r="K33" t="n">
-        <v>111.2371450066233</v>
+        <v>375.7023820192019</v>
       </c>
       <c r="L33" t="n">
-        <v>196.3625145889916</v>
+        <v>567.2028598924508</v>
       </c>
       <c r="M33" t="n">
-        <v>714.4032485470882</v>
+        <v>248.6981847970882</v>
       </c>
       <c r="N33" t="n">
-        <v>749.1770468512589</v>
+        <v>269.8346725077052</v>
       </c>
       <c r="O33" t="n">
-        <v>224.4017712878626</v>
+        <v>224.4017712878625</v>
       </c>
       <c r="P33" t="n">
-        <v>479.0366239673841</v>
+        <v>479.036623967384</v>
       </c>
       <c r="Q33" t="n">
-        <v>79.68207285716514</v>
+        <v>263.3328932942727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37247,7 +37247,7 @@
         <v>153.6819834742179</v>
       </c>
       <c r="Q34" t="n">
-        <v>22.12358065029662</v>
+        <v>22.1235806502966</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>232.7339139906332</v>
+        <v>232.7339139906331</v>
       </c>
       <c r="K35" t="n">
         <v>470.7722557635402</v>
       </c>
       <c r="L35" t="n">
-        <v>636.8392860901893</v>
+        <v>636.8392860901891</v>
       </c>
       <c r="M35" t="n">
-        <v>725.3806999255944</v>
+        <v>725.3806999255943</v>
       </c>
       <c r="N35" t="n">
-        <v>722.3383225117428</v>
+        <v>722.3383225117427</v>
       </c>
       <c r="O35" t="n">
-        <v>636.439516227736</v>
+        <v>636.4395162277359</v>
       </c>
       <c r="P35" t="n">
-        <v>505.131470321932</v>
+        <v>505.1314703219319</v>
       </c>
       <c r="Q35" t="n">
         <v>301.3309199580368</v>
       </c>
       <c r="R35" t="n">
-        <v>31.22434466814695</v>
+        <v>31.22434466814693</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>18.89401299800835</v>
+        <v>18.89401299800832</v>
       </c>
       <c r="K36" t="n">
-        <v>111.2371450066233</v>
+        <v>375.7023820192019</v>
       </c>
       <c r="L36" t="n">
-        <v>196.3625145889916</v>
+        <v>196.3625145889915</v>
       </c>
       <c r="M36" t="n">
-        <v>714.4032485470882</v>
+        <v>714.4032485470881</v>
       </c>
       <c r="N36" t="n">
         <v>749.1770468512589</v>
       </c>
       <c r="O36" t="n">
-        <v>224.4017712878626</v>
+        <v>224.4017712878625</v>
       </c>
       <c r="P36" t="n">
-        <v>479.0366239673841</v>
+        <v>160.5738553274468</v>
       </c>
       <c r="Q36" t="n">
-        <v>79.68207285716561</v>
+        <v>133.6796044845244</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37484,7 +37484,7 @@
         <v>153.6819834742179</v>
       </c>
       <c r="Q37" t="n">
-        <v>22.12358065029662</v>
+        <v>22.1235806502966</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,28 +37545,28 @@
         <v>232.7339139906332</v>
       </c>
       <c r="K38" t="n">
-        <v>470.7722557635402</v>
+        <v>470.7722557635403</v>
       </c>
       <c r="L38" t="n">
         <v>636.8392860901893</v>
       </c>
       <c r="M38" t="n">
-        <v>725.3806999255944</v>
+        <v>725.3806999255945</v>
       </c>
       <c r="N38" t="n">
-        <v>722.3383225117428</v>
+        <v>722.3383225117429</v>
       </c>
       <c r="O38" t="n">
-        <v>636.439516227736</v>
+        <v>636.4395162277361</v>
       </c>
       <c r="P38" t="n">
-        <v>505.131470321932</v>
+        <v>505.1314703219321</v>
       </c>
       <c r="Q38" t="n">
         <v>301.3309199580368</v>
       </c>
       <c r="R38" t="n">
-        <v>31.22434466814695</v>
+        <v>31.22434466814698</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>18.89401299800835</v>
+        <v>144.9850483384172</v>
       </c>
       <c r="K39" t="n">
-        <v>111.2371450066233</v>
+        <v>375.702382019202</v>
       </c>
       <c r="L39" t="n">
-        <v>196.3625145889916</v>
+        <v>567.2028598924508</v>
       </c>
       <c r="M39" t="n">
         <v>714.4032485470882</v>
       </c>
       <c r="N39" t="n">
-        <v>749.1770468512589</v>
+        <v>269.8346725077054</v>
       </c>
       <c r="O39" t="n">
         <v>224.4017712878626</v>
       </c>
       <c r="P39" t="n">
-        <v>479.0366239673841</v>
+        <v>160.5738553274469</v>
       </c>
       <c r="Q39" t="n">
-        <v>79.68207285716561</v>
+        <v>116.0905981842098</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,25 +37703,25 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>127.973725356556</v>
+        <v>127.9737253565561</v>
       </c>
       <c r="L40" t="n">
         <v>219.8496163246046</v>
       </c>
       <c r="M40" t="n">
-        <v>242.2946589553299</v>
+        <v>242.29465895533</v>
       </c>
       <c r="N40" t="n">
-        <v>242.0229450577885</v>
+        <v>242.0229450577886</v>
       </c>
       <c r="O40" t="n">
-        <v>207.3692860323934</v>
+        <v>207.3692860323935</v>
       </c>
       <c r="P40" t="n">
-        <v>153.6819834742179</v>
+        <v>153.681983474218</v>
       </c>
       <c r="Q40" t="n">
-        <v>22.12358065029662</v>
+        <v>22.12358065029663</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>18.89401299800835</v>
+        <v>144.9850483384172</v>
       </c>
       <c r="K42" t="n">
-        <v>111.2371450066234</v>
+        <v>375.702382019202</v>
       </c>
       <c r="L42" t="n">
-        <v>537.5914169368574</v>
+        <v>567.2028598924508</v>
       </c>
       <c r="M42" t="n">
-        <v>714.4032485470882</v>
+        <v>248.6981847970883</v>
       </c>
       <c r="N42" t="n">
-        <v>749.1770468512589</v>
+        <v>269.8346725077054</v>
       </c>
       <c r="O42" t="n">
         <v>224.4017712878626</v>
       </c>
       <c r="P42" t="n">
-        <v>160.5738553274469</v>
+        <v>475.3762903765699</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.91593914923695</v>
+        <v>266.9932268850861</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>232.7339139906332</v>
+        <v>232.7339139906321</v>
       </c>
       <c r="K44" t="n">
         <v>470.7722557635403</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>18.89401299800835</v>
+        <v>144.9850483384172</v>
       </c>
       <c r="K45" t="n">
-        <v>111.2371450066234</v>
+        <v>375.702382019202</v>
       </c>
       <c r="L45" t="n">
-        <v>537.5914169368574</v>
+        <v>567.2028598924508</v>
       </c>
       <c r="M45" t="n">
-        <v>714.4032485470882</v>
+        <v>248.6981847970883</v>
       </c>
       <c r="N45" t="n">
-        <v>749.1770468512589</v>
+        <v>269.8346725077054</v>
       </c>
       <c r="O45" t="n">
         <v>224.4017712878626</v>
       </c>
       <c r="P45" t="n">
-        <v>160.5738553274469</v>
+        <v>475.3762903765699</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.91593914923695</v>
+        <v>266.9932268850861</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
